--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>ibes_ex_fwd</t>
   </si>
@@ -36,25 +36,70 @@
     <t>lgbm_in_fwd</t>
   </si>
   <si>
-    <t>ibes eps ts - new industry</t>
-  </si>
-  <si>
-    <t>ibes eps ts - new</t>
-  </si>
-  <si>
-    <t>qcut x - new industry</t>
-  </si>
-  <si>
-    <t>new qcut x - new industry</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>new industry</t>
-  </si>
-  <si>
-    <t>complete fwd</t>
+    <t>ibes_new industry</t>
+  </si>
+  <si>
+    <t>ni_new industry</t>
+  </si>
+  <si>
+    <t>ni_sector</t>
+  </si>
+  <si>
+    <t>ibes_sector</t>
+  </si>
+  <si>
+    <t>ibes_new industry_qcut x</t>
+  </si>
+  <si>
+    <t>ni_sector_qcut x</t>
+  </si>
+  <si>
+    <t>ni_entire</t>
+  </si>
+  <si>
+    <t>ibes_entire</t>
+  </si>
+  <si>
+    <t>ni_new industry_qcut x</t>
+  </si>
+  <si>
+    <t>ibes_new industry_in</t>
+  </si>
+  <si>
+    <t>ibes_new industry_ex</t>
+  </si>
+  <si>
+    <t>ni_new industry_in</t>
+  </si>
+  <si>
+    <t>ni_new industry_ex</t>
+  </si>
+  <si>
+    <t>ni_sector_in</t>
+  </si>
+  <si>
+    <t>ni_sector_ex</t>
+  </si>
+  <si>
+    <t>ibes_sector_in</t>
+  </si>
+  <si>
+    <t>ibes_new industry_qcut x_in</t>
+  </si>
+  <si>
+    <t>ni_sector_qcut x_in</t>
+  </si>
+  <si>
+    <t>ni_entire_in</t>
+  </si>
+  <si>
+    <t>ni_entire_ex</t>
+  </si>
+  <si>
+    <t>ibes_entire_ex</t>
+  </si>
+  <si>
+    <t>ni_new industry_qcut x_in</t>
   </si>
   <si>
     <t>industry_group_name</t>
@@ -487,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,42 +562,69 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2">
+        <v>0.008604109548964898</v>
+      </c>
       <c r="C2">
-        <v>0.0086114194711597</v>
+        <v>0.008057441746575416</v>
+      </c>
+      <c r="D2">
+        <v>14467</v>
       </c>
       <c r="E2">
-        <v>14202</v>
+        <v>9486</v>
+      </c>
+      <c r="F2">
+        <v>0.008221225012733875</v>
       </c>
       <c r="G2">
-        <v>0.01284893537600561</v>
+        <v>0.007785451251089948</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B3">
+        <v>0.009384087290453671</v>
+      </c>
       <c r="C3">
-        <v>0.008673141980908865</v>
+        <v>0.009384087290453671</v>
+      </c>
+      <c r="D3">
+        <v>14289</v>
       </c>
       <c r="E3">
-        <v>13402</v>
+        <v>14289</v>
+      </c>
+      <c r="F3">
+        <v>0.01373872103396161</v>
       </c>
       <c r="G3">
-        <v>0.01291950673963721</v>
+        <v>0.01340097877107649</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B4">
+        <v>0.009486213628492479</v>
+      </c>
       <c r="C4">
-        <v>0.008551510483196417</v>
+        <v>0.009486213628492479</v>
+      </c>
+      <c r="D4">
+        <v>14246</v>
       </c>
       <c r="E4">
-        <v>7613</v>
+        <v>14246</v>
+      </c>
+      <c r="F4">
+        <v>0.01403172884347196</v>
       </c>
       <c r="G4">
-        <v>0.01336420918724227</v>
+        <v>0.01400745198307837</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -560,59 +632,41 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.009364158275049096</v>
+        <v>0.008673141980908865</v>
       </c>
       <c r="E5">
-        <v>14467</v>
+        <v>13402</v>
       </c>
       <c r="G5">
-        <v>0.01353044186514918</v>
+        <v>0.008290137046021794</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0.00953124141225465</v>
-      </c>
       <c r="C6">
-        <v>0.00953124141225465</v>
-      </c>
-      <c r="D6">
-        <v>13704</v>
+        <v>0.008604109548964898</v>
       </c>
       <c r="E6">
-        <v>13704</v>
-      </c>
-      <c r="F6">
-        <v>0.01372658348269507</v>
+        <v>14467</v>
       </c>
       <c r="G6">
-        <v>0.01326894333035627</v>
+        <v>0.007511909559928318</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>0.009384087290453671</v>
-      </c>
       <c r="C7">
-        <v>0.009384087290453671</v>
-      </c>
-      <c r="D7">
-        <v>14289</v>
+        <v>0.009038742197873241</v>
       </c>
       <c r="E7">
-        <v>14289</v>
-      </c>
-      <c r="F7">
-        <v>0.01373858081211837</v>
+        <v>4248</v>
       </c>
       <c r="G7">
-        <v>0.01340083950356918</v>
+        <v>0.01264312937616183</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -620,22 +674,50 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.009486213628492479</v>
+        <v>0.00930690016118596</v>
       </c>
       <c r="C8">
-        <v>0.009486213628492479</v>
+        <v>0.00930690016118596</v>
       </c>
       <c r="D8">
-        <v>14246</v>
+        <v>14467</v>
       </c>
       <c r="E8">
-        <v>14246</v>
+        <v>14467</v>
       </c>
       <c r="F8">
-        <v>0.01403109498615633</v>
+        <v>0.01367235834876642</v>
       </c>
       <c r="G8">
-        <v>0.01400770823545086</v>
+        <v>0.01322805762894923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.008568096829830972</v>
+      </c>
+      <c r="D9">
+        <v>4001</v>
+      </c>
+      <c r="F9">
+        <v>0.008490356781634662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0.009364158275049096</v>
+      </c>
+      <c r="E10">
+        <v>14467</v>
+      </c>
+      <c r="G10">
+        <v>0.01353023904628762</v>
       </c>
     </row>
   </sheetData>
@@ -645,476 +727,770 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>101010</v>
       </c>
       <c r="B2">
-        <v>0.01025987784811838</v>
+        <v>0.005825651736786604</v>
       </c>
       <c r="C2">
-        <v>0.008019947581875953</v>
+        <v>0.005704138813640623</v>
+      </c>
+      <c r="D2">
+        <v>0.009832512701707838</v>
       </c>
       <c r="E2">
+        <v>0.01013238096009468</v>
+      </c>
+      <c r="F2">
+        <v>0.01021439236499505</v>
+      </c>
+      <c r="G2">
+        <v>0.009792434439554068</v>
+      </c>
+      <c r="H2">
+        <v>0.005192369352222954</v>
+      </c>
+      <c r="I2">
+        <v>0.005132031684094241</v>
+      </c>
+      <c r="K2">
+        <v>0.009808560358707722</v>
+      </c>
+      <c r="L2">
+        <v>0.01017432562172689</v>
+      </c>
+      <c r="M2">
+        <v>0.00566593332810547</v>
+      </c>
+      <c r="N2">
         <v>0.009937773292203548</v>
       </c>
-      <c r="F2">
-        <v>0.009662555178142072</v>
-      </c>
-      <c r="G2">
-        <v>0.009832512701707838</v>
-      </c>
-      <c r="H2">
-        <v>0.01021439236499505</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>101020</v>
       </c>
       <c r="B3">
-        <v>0.01421431418226808</v>
+        <v>0.01006633167675229</v>
       </c>
       <c r="C3">
-        <v>0.01526024147913259</v>
+        <v>0.01001928038862385</v>
+      </c>
+      <c r="D3">
+        <v>0.01446437480351473</v>
       </c>
       <c r="E3">
+        <v>0.01489931485833127</v>
+      </c>
+      <c r="F3">
+        <v>0.0152451302070861</v>
+      </c>
+      <c r="G3">
+        <v>0.01516578418853078</v>
+      </c>
+      <c r="H3">
+        <v>0.0108870809227565</v>
+      </c>
+      <c r="I3">
+        <v>0.009146068811238792</v>
+      </c>
+      <c r="J3">
+        <v>0.01539428219254811</v>
+      </c>
+      <c r="K3">
+        <v>0.01400671875277389</v>
+      </c>
+      <c r="L3">
+        <v>0.01441895633806201</v>
+      </c>
+      <c r="M3">
+        <v>0.00952594913725169</v>
+      </c>
+      <c r="N3">
         <v>0.01466219525930604</v>
       </c>
-      <c r="F3">
-        <v>0.01444483966590191</v>
-      </c>
-      <c r="G3">
-        <v>0.01446437480351473</v>
-      </c>
-      <c r="H3">
-        <v>0.0152451302070861</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>201020</v>
       </c>
       <c r="B4">
-        <v>0.008071899080177051</v>
+        <v>0.002946325984736212</v>
       </c>
       <c r="C4">
-        <v>0.006300643613977948</v>
+        <v>0.002899733470058449</v>
       </c>
       <c r="D4">
-        <v>0.00996113477510337</v>
+        <v>0.009607643215239842</v>
       </c>
       <c r="E4">
+        <v>0.009691141661559271</v>
+      </c>
+      <c r="F4">
+        <v>0.009096530118286195</v>
+      </c>
+      <c r="G4">
+        <v>0.008927047694839138</v>
+      </c>
+      <c r="H4">
+        <v>0.002604004490964441</v>
+      </c>
+      <c r="I4">
+        <v>0.002627192634740463</v>
+      </c>
+      <c r="K4">
+        <v>0.01093351287066735</v>
+      </c>
+      <c r="L4">
+        <v>0.01092928372175739</v>
+      </c>
+      <c r="M4">
+        <v>0.003950512769327796</v>
+      </c>
+      <c r="N4">
         <v>0.009626555087653104</v>
       </c>
-      <c r="F4">
-        <v>0.009914820941985789</v>
-      </c>
-      <c r="G4">
-        <v>0.009607643215239842</v>
-      </c>
-      <c r="H4">
-        <v>0.009096530118286195</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>201030</v>
       </c>
       <c r="B5">
-        <v>0.007548688936865483</v>
+        <v>0.004709240937036301</v>
       </c>
       <c r="C5">
-        <v>0.008349437844370084</v>
+        <v>0.004641751041890648</v>
       </c>
       <c r="D5">
-        <v>0.01008598664213488</v>
+        <v>0.009404463086761796</v>
       </c>
       <c r="E5">
+        <v>0.009674929411770714</v>
+      </c>
+      <c r="F5">
+        <v>0.01060127617561577</v>
+      </c>
+      <c r="G5">
+        <v>0.01060550453268885</v>
+      </c>
+      <c r="H5">
+        <v>0.004840476327246798</v>
+      </c>
+      <c r="I5">
+        <v>0.003921645215372789</v>
+      </c>
+      <c r="J5">
+        <v>0.01064377211686659</v>
+      </c>
+      <c r="K5">
+        <v>0.009860892662458152</v>
+      </c>
+      <c r="L5">
+        <v>0.01013713343915515</v>
+      </c>
+      <c r="M5">
+        <v>0.006739198215134424</v>
+      </c>
+      <c r="N5">
         <v>0.009337057705955193</v>
       </c>
-      <c r="F5">
-        <v>0.009217553175103685</v>
-      </c>
-      <c r="G5">
-        <v>0.009404463086761796</v>
-      </c>
-      <c r="H5">
-        <v>0.01060127617561577</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>301010</v>
       </c>
       <c r="B6">
-        <v>0.01101891633382652</v>
+        <v>0.008048520687111512</v>
       </c>
       <c r="C6">
-        <v>0.008947882150413842</v>
+        <v>0.007977611898385556</v>
       </c>
       <c r="D6">
-        <v>0.008644469065242024</v>
+        <v>0.009587518590988001</v>
       </c>
       <c r="E6">
-        <v>0.009555728232881467</v>
+        <v>0.009822928940607227</v>
       </c>
       <c r="F6">
-        <v>0.009600285334384302</v>
+        <v>0.01054566398749802</v>
       </c>
       <c r="G6">
-        <v>0.009583321246147525</v>
+        <v>0.01077143863447153</v>
       </c>
       <c r="H6">
-        <v>0.01054608158495056</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.007497210385149775</v>
+      </c>
+      <c r="I6">
+        <v>0.007366325179078606</v>
+      </c>
+      <c r="J6">
+        <v>0.009286826214110094</v>
+      </c>
+      <c r="K6">
+        <v>0.009925634184743825</v>
+      </c>
+      <c r="L6">
+        <v>0.009972370393913453</v>
+      </c>
+      <c r="M6">
+        <v>0.008197206807718996</v>
+      </c>
+      <c r="N6">
+        <v>0.009552501811608223</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>302020</v>
       </c>
       <c r="B7">
-        <v>0.01359062269986117</v>
+        <v>0.008893189330261222</v>
       </c>
       <c r="C7">
-        <v>0.01339461062953688</v>
+        <v>0.008915361728356273</v>
       </c>
       <c r="D7">
-        <v>0.01382848505625415</v>
+        <v>0.0135637986365495</v>
       </c>
       <c r="E7">
+        <v>0.01384649730840158</v>
+      </c>
+      <c r="F7">
+        <v>0.01270577101877469</v>
+      </c>
+      <c r="G7">
+        <v>0.01278538993678484</v>
+      </c>
+      <c r="H7">
+        <v>0.008287112684064641</v>
+      </c>
+      <c r="I7">
+        <v>0.008346800214258205</v>
+      </c>
+      <c r="J7">
+        <v>0.0127498004667325</v>
+      </c>
+      <c r="K7">
+        <v>0.01264484708552587</v>
+      </c>
+      <c r="L7">
+        <v>0.01300989409439348</v>
+      </c>
+      <c r="M7">
+        <v>0.007446600832868254</v>
+      </c>
+      <c r="N7">
         <v>0.01382384259772151</v>
       </c>
-      <c r="F7">
-        <v>0.0128269073699003</v>
-      </c>
-      <c r="G7">
-        <v>0.0135637986365495</v>
-      </c>
-      <c r="H7">
-        <v>0.01270577101877469</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>351020</v>
       </c>
       <c r="B8">
-        <v>0.01120480194743548</v>
+        <v>0.007439092238449948</v>
       </c>
       <c r="C8">
-        <v>0.01014436244990159</v>
+        <v>0.007576155058548617</v>
       </c>
       <c r="D8">
-        <v>0.01174516563645323</v>
+        <v>0.01175361038919795</v>
       </c>
       <c r="E8">
+        <v>0.01200894170304913</v>
+      </c>
+      <c r="F8">
+        <v>0.01146660825435486</v>
+      </c>
+      <c r="G8">
+        <v>0.01134661758649544</v>
+      </c>
+      <c r="H8">
+        <v>0.007053315593091382</v>
+      </c>
+      <c r="I8">
+        <v>0.007022492196783984</v>
+      </c>
+      <c r="J8">
+        <v>0.01132213416316161</v>
+      </c>
+      <c r="K8">
+        <v>0.01203579710806458</v>
+      </c>
+      <c r="L8">
+        <v>0.01229328464496679</v>
+      </c>
+      <c r="M8">
+        <v>0.007243678331003815</v>
+      </c>
+      <c r="N8">
         <v>0.01185550826979428</v>
       </c>
-      <c r="F8">
-        <v>0.01233943293916572</v>
-      </c>
-      <c r="G8">
-        <v>0.01175361038919795</v>
-      </c>
-      <c r="H8">
-        <v>0.01146660825435486</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>401010</v>
       </c>
       <c r="B9">
-        <v>0.01663593790310799</v>
+        <v>0.01203306127473597</v>
       </c>
       <c r="C9">
-        <v>0.0208218462703945</v>
+        <v>0.01227173696847155</v>
       </c>
       <c r="D9">
-        <v>0.01876897008952419</v>
+        <v>0.01939119170423372</v>
       </c>
       <c r="E9">
+        <v>0.0198339374152041</v>
+      </c>
+      <c r="F9">
+        <v>0.02276096945594988</v>
+      </c>
+      <c r="G9">
+        <v>0.02252555084242609</v>
+      </c>
+      <c r="H9">
+        <v>0.01490854290250945</v>
+      </c>
+      <c r="I9">
+        <v>0.0104619968952899</v>
+      </c>
+      <c r="K9">
+        <v>0.01681881465450638</v>
+      </c>
+      <c r="L9">
+        <v>0.01803104428595479</v>
+      </c>
+      <c r="M9">
+        <v>0.01335366119045482</v>
+      </c>
+      <c r="N9">
         <v>0.01841778424157687</v>
       </c>
-      <c r="F9">
-        <v>0.0167800426936269</v>
-      </c>
-      <c r="G9">
-        <v>0.01939119170423372</v>
-      </c>
-      <c r="H9">
-        <v>0.02276096945594988</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="O9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>501010</v>
       </c>
       <c r="B10">
-        <v>0.01485111826777346</v>
+        <v>0.01627246197913271</v>
       </c>
       <c r="C10">
-        <v>0.0141537097629591</v>
+        <v>0.01151503667058106</v>
+      </c>
+      <c r="D10">
+        <v>0.01595655370172666</v>
       </c>
       <c r="E10">
+        <v>0.01573116765748918</v>
+      </c>
+      <c r="F10">
+        <v>0.01521455722630404</v>
+      </c>
+      <c r="G10">
+        <v>0.01516791409737446</v>
+      </c>
+      <c r="H10">
+        <v>0.01096982813924414</v>
+      </c>
+      <c r="I10">
+        <v>0.01133693511524583</v>
+      </c>
+      <c r="K10">
+        <v>0.01603849710007757</v>
+      </c>
+      <c r="L10">
+        <v>0.01590581209593198</v>
+      </c>
+      <c r="M10">
+        <v>0.01250619120447279</v>
+      </c>
+      <c r="N10">
         <v>0.01564635671178411</v>
       </c>
-      <c r="F10">
-        <v>0.01617934746201918</v>
-      </c>
-      <c r="G10">
-        <v>0.01595655370172666</v>
-      </c>
-      <c r="H10">
-        <v>0.01521455722630404</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="O10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>502030</v>
       </c>
       <c r="B11">
-        <v>0.01544063238329757</v>
+        <v>0.01144090636836229</v>
       </c>
       <c r="C11">
-        <v>0.01645151836893667</v>
+        <v>0.008898239130995071</v>
+      </c>
+      <c r="D11">
+        <v>0.01528370976091239</v>
       </c>
       <c r="E11">
+        <v>0.01613578272814685</v>
+      </c>
+      <c r="F11">
+        <v>0.01667548476797439</v>
+      </c>
+      <c r="G11">
+        <v>0.01640991990440855</v>
+      </c>
+      <c r="H11">
+        <v>0.009386125348899951</v>
+      </c>
+      <c r="I11">
+        <v>0.008389801559336035</v>
+      </c>
+      <c r="K11">
+        <v>0.01416355760998396</v>
+      </c>
+      <c r="L11">
+        <v>0.01539481584644663</v>
+      </c>
+      <c r="M11">
+        <v>0.009796456284593941</v>
+      </c>
+      <c r="N11">
         <v>0.01592135839418957</v>
       </c>
-      <c r="F11">
-        <v>0.01416355745089657</v>
-      </c>
-      <c r="G11">
-        <v>0.01528370976091239</v>
-      </c>
-      <c r="H11">
-        <v>0.01667548476797439</v>
-      </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="O11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>502050</v>
       </c>
       <c r="B12">
-        <v>0.009937826032597684</v>
+        <v>0.005537657355633657</v>
       </c>
       <c r="C12">
-        <v>0.01121589514728227</v>
+        <v>0.006016990930540475</v>
+      </c>
+      <c r="D12">
+        <v>0.01010375438018501</v>
       </c>
       <c r="E12">
+        <v>0.01024102219493555</v>
+      </c>
+      <c r="F12">
+        <v>0.009788627994459027</v>
+      </c>
+      <c r="G12">
+        <v>0.01000026096658969</v>
+      </c>
+      <c r="H12">
+        <v>0.006256909460219484</v>
+      </c>
+      <c r="I12">
+        <v>0.005451583054259138</v>
+      </c>
+      <c r="K12">
+        <v>0.009966374945279117</v>
+      </c>
+      <c r="L12">
+        <v>0.01030877831127568</v>
+      </c>
+      <c r="M12">
+        <v>0.005818861402310535</v>
+      </c>
+      <c r="N12">
         <v>0.009901716526783224</v>
       </c>
-      <c r="F12">
-        <v>0.01018928133615024</v>
-      </c>
-      <c r="G12">
-        <v>0.01010375438018501</v>
-      </c>
-      <c r="H12">
-        <v>0.009788627994459027</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>502060</v>
       </c>
       <c r="B13">
-        <v>0.01134844358036206</v>
+        <v>0.0059068091200639</v>
       </c>
       <c r="C13">
-        <v>0.01009568798906782</v>
+        <v>0.006800044626325685</v>
+      </c>
+      <c r="D13">
+        <v>0.01070525829911783</v>
       </c>
       <c r="E13">
+        <v>0.01106575304566453</v>
+      </c>
+      <c r="F13">
+        <v>0.01091409054449373</v>
+      </c>
+      <c r="G13">
+        <v>0.01108329781481858</v>
+      </c>
+      <c r="H13">
+        <v>0.006333008860427854</v>
+      </c>
+      <c r="I13">
+        <v>0.006188853797943196</v>
+      </c>
+      <c r="J13">
+        <v>0.01101811488446248</v>
+      </c>
+      <c r="K13">
+        <v>0.01098239647619436</v>
+      </c>
+      <c r="L13">
+        <v>0.01133031519574467</v>
+      </c>
+      <c r="M13">
+        <v>0.005397280924621732</v>
+      </c>
+      <c r="N13">
         <v>0.01099031159752283</v>
       </c>
-      <c r="F13">
-        <v>0.01098239620218497</v>
-      </c>
-      <c r="G13">
-        <v>0.01070525829911783</v>
-      </c>
-      <c r="H13">
-        <v>0.01091409054449373</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="O13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>552010</v>
       </c>
       <c r="B14">
-        <v>0.01733218903511056</v>
+        <v>0.01059290744648406</v>
       </c>
       <c r="C14">
-        <v>0.02031566826931313</v>
+        <v>0.01123914497929064</v>
+      </c>
+      <c r="D14">
+        <v>0.01773527129772114</v>
       </c>
       <c r="E14">
+        <v>0.01836701741099095</v>
+      </c>
+      <c r="F14">
+        <v>0.02264543080019671</v>
+      </c>
+      <c r="G14">
+        <v>0.02277187242392889</v>
+      </c>
+      <c r="H14">
+        <v>0.01361553780208534</v>
+      </c>
+      <c r="I14">
+        <v>0.01051722853008774</v>
+      </c>
+      <c r="J14">
+        <v>0.02153943843549229</v>
+      </c>
+      <c r="K14">
+        <v>0.0178066158036544</v>
+      </c>
+      <c r="L14">
+        <v>0.01878294903135721</v>
+      </c>
+      <c r="M14">
+        <v>0.01006386345681559</v>
+      </c>
+      <c r="N14">
         <v>0.0182425130023461</v>
       </c>
-      <c r="F14">
-        <v>0.01767652702232077</v>
-      </c>
-      <c r="G14">
-        <v>0.01773527129772114</v>
-      </c>
-      <c r="H14">
-        <v>0.02264543080019671</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="O14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>601010</v>
       </c>
-      <c r="B15">
-        <v>0.0233454460897251</v>
-      </c>
       <c r="C15">
-        <v>0.02383708615577314</v>
+        <v>0.01723986774571752</v>
       </c>
       <c r="D15">
-        <v>0.02464168232561803</v>
+        <v>0.0233287159842744</v>
       </c>
       <c r="E15">
-        <v>0.02341676889476159</v>
+        <v>0.0248452085392081</v>
       </c>
       <c r="F15">
-        <v>0.02151376991673556</v>
+        <v>0.0240436893162403</v>
       </c>
       <c r="G15">
-        <v>0.02333833988990613</v>
+        <v>0.02420956325801875</v>
       </c>
       <c r="H15">
-        <v>0.0240524935523939</v>
-      </c>
-      <c r="I15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.01804025449554311</v>
+      </c>
+      <c r="I15">
+        <v>0.0161903994187002</v>
+      </c>
+      <c r="K15">
+        <v>0.02150938687202154</v>
+      </c>
+      <c r="L15">
+        <v>0.02171427731446102</v>
+      </c>
+      <c r="M15">
+        <v>0.01344614400831168</v>
+      </c>
+      <c r="N15">
+        <v>0.02341880358784819</v>
+      </c>
+      <c r="O15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>651010</v>
       </c>
-      <c r="B16">
-        <v>0.01011871681150189</v>
-      </c>
       <c r="C16">
-        <v>0.01080397411751335</v>
+        <v>0.004527241978693409</v>
       </c>
       <c r="D16">
-        <v>0.01346999387755381</v>
+        <v>0.0135165672204171</v>
       </c>
       <c r="E16">
+        <v>0.01385235272076801</v>
+      </c>
+      <c r="F16">
+        <v>0.01391104180102846</v>
+      </c>
+      <c r="G16">
+        <v>0.01392603113884061</v>
+      </c>
+      <c r="H16">
+        <v>0.004942460031302301</v>
+      </c>
+      <c r="I16">
+        <v>0.003721811313873725</v>
+      </c>
+      <c r="K16">
+        <v>0.01400733580992401</v>
+      </c>
+      <c r="L16">
+        <v>0.01448492557448118</v>
+      </c>
+      <c r="M16">
+        <v>0.006720830376801823</v>
+      </c>
+      <c r="N16">
         <v>0.01379799367002673</v>
       </c>
-      <c r="F16">
-        <v>0.01448281824788826</v>
-      </c>
-      <c r="G16">
-        <v>0.0135165672204171</v>
-      </c>
-      <c r="H16">
-        <v>0.01391104180102846</v>
-      </c>
-      <c r="I16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="O16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>999999</v>
       </c>
       <c r="B17">
-        <v>0.01320503759664317</v>
+        <v>0.007806883422741866</v>
       </c>
       <c r="C17">
-        <v>0.01277188138034989</v>
+        <v>0.008211532341451708</v>
       </c>
       <c r="D17">
-        <v>0.01352717478955569</v>
+        <v>0.01382477866064235</v>
       </c>
       <c r="E17">
-        <v>0.01402688687739905</v>
+        <v>0.01415117363041125</v>
       </c>
       <c r="F17">
-        <v>0.0136659910896464</v>
+        <v>0.01402828231868724</v>
       </c>
       <c r="G17">
-        <v>0.01382454793488109</v>
+        <v>0.01410010316872321</v>
       </c>
       <c r="H17">
-        <v>0.01402839978351734</v>
+        <v>0.007760884586167082</v>
+      </c>
+      <c r="I17">
+        <v>0.007464245247132965</v>
+      </c>
+      <c r="K17">
+        <v>0.01360657182667689</v>
+      </c>
+      <c r="L17">
+        <v>0.01412258315305783</v>
+      </c>
+      <c r="M17">
+        <v>0.008766012617558057</v>
+      </c>
+      <c r="N17">
+        <v>0.01402674049168545</v>
       </c>
     </row>
   </sheetData>
@@ -1124,291 +1500,459 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0.01311604981649704</v>
+        <v>0.008238066262184776</v>
       </c>
       <c r="C2">
-        <v>0.01295959514592698</v>
+        <v>0.008169574846609354</v>
+      </c>
+      <c r="D2">
+        <v>0.01346979336029281</v>
       </c>
       <c r="E2">
+        <v>0.01382052172969776</v>
+      </c>
+      <c r="F2">
+        <v>0.01397567367031621</v>
+      </c>
+      <c r="G2">
+        <v>0.01385677396465971</v>
+      </c>
+      <c r="H2">
+        <v>0.008553358037482984</v>
+      </c>
+      <c r="I2">
+        <v>0.007402847772366099</v>
+      </c>
+      <c r="J2">
+        <v>0.01539428219254811</v>
+      </c>
+      <c r="K2">
+        <v>0.01325209201577848</v>
+      </c>
+      <c r="L2">
+        <v>0.01358242827966125</v>
+      </c>
+      <c r="M2">
+        <v>0.008018386241612611</v>
+      </c>
+      <c r="N2">
         <v>0.01371601924807428</v>
       </c>
-      <c r="F2">
-        <v>0.01351081812200245</v>
-      </c>
-      <c r="G2">
-        <v>0.01346979336029281</v>
-      </c>
-      <c r="H2">
-        <v>0.01397567367031621</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>0.007664993532560118</v>
+        <v>0.004138791213560524</v>
       </c>
       <c r="C3">
-        <v>0.008019837398411809</v>
+        <v>0.004088650986902714</v>
       </c>
       <c r="D3">
-        <v>0.01007315359340231</v>
+        <v>0.009456975156532078</v>
       </c>
       <c r="E3">
+        <v>0.009694272172748732</v>
+      </c>
+      <c r="F3">
+        <v>0.0100714505201386</v>
+      </c>
+      <c r="G3">
+        <v>0.01004803406167705</v>
+      </c>
+      <c r="H3">
+        <v>0.004103759169465663</v>
+      </c>
+      <c r="I3">
+        <v>0.003475853579399417</v>
+      </c>
+      <c r="J3">
+        <v>0.01064377211686659</v>
+      </c>
+      <c r="K3">
+        <v>0.01004652653433095</v>
+      </c>
+      <c r="L3">
+        <v>0.01036387478723531</v>
+      </c>
+      <c r="M3">
+        <v>0.005891239262919751</v>
+      </c>
+      <c r="N3">
         <v>0.009444595549276734</v>
       </c>
-      <c r="F3">
-        <v>0.009331500347807898</v>
-      </c>
-      <c r="G3">
-        <v>0.009456975156532078</v>
-      </c>
-      <c r="H3">
-        <v>0.0100714505201386</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>30</v>
       </c>
       <c r="B4">
-        <v>0.01364339014909697</v>
+        <v>0.008397866958591899</v>
       </c>
       <c r="C4">
-        <v>0.012486155383376</v>
+        <v>0.00836548054047602</v>
       </c>
       <c r="D4">
-        <v>0.01291049825990904</v>
+        <v>0.01300623819344787</v>
       </c>
       <c r="E4">
-        <v>0.01319654086065613</v>
+        <v>0.01330002110086778</v>
       </c>
       <c r="F4">
-        <v>0.01255273029977967</v>
+        <v>0.01307567353315018</v>
       </c>
       <c r="G4">
-        <v>0.01300390377860393</v>
+        <v>0.01321586447848738</v>
       </c>
       <c r="H4">
-        <v>0.01307616700211927</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.007645126926116423</v>
+      </c>
+      <c r="I4">
+        <v>0.007706111225937342</v>
+      </c>
+      <c r="J4">
+        <v>0.01121228553908548</v>
+      </c>
+      <c r="K4">
+        <v>0.01273398035072573</v>
+      </c>
+      <c r="L4">
+        <v>0.01301185325199213</v>
+      </c>
+      <c r="M4">
+        <v>0.007897048979100301</v>
+      </c>
+      <c r="N4">
+        <v>0.01319482190655445</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>35</v>
       </c>
       <c r="B5">
-        <v>0.01226634869570207</v>
+        <v>0.00875863612165315</v>
       </c>
       <c r="C5">
-        <v>0.01212548482723987</v>
+        <v>0.008787461852057808</v>
       </c>
       <c r="D5">
-        <v>0.01340772812422415</v>
+        <v>0.01318292896685904</v>
       </c>
       <c r="E5">
+        <v>0.0133179768606411</v>
+      </c>
+      <c r="F5">
+        <v>0.01382841717473431</v>
+      </c>
+      <c r="G5">
+        <v>0.01373294710143217</v>
+      </c>
+      <c r="H5">
+        <v>0.008861242618176399</v>
+      </c>
+      <c r="I5">
+        <v>0.008505901342546127</v>
+      </c>
+      <c r="J5">
+        <v>0.01132213416316161</v>
+      </c>
+      <c r="K5">
+        <v>0.01406908486131266</v>
+      </c>
+      <c r="L5">
+        <v>0.01449824241263426</v>
+      </c>
+      <c r="M5">
+        <v>0.009326892333927082</v>
+      </c>
+      <c r="N5">
         <v>0.01345294770498154</v>
       </c>
-      <c r="F5">
-        <v>0.01433387472787404</v>
-      </c>
-      <c r="G5">
-        <v>0.01318292896685904</v>
-      </c>
-      <c r="H5">
-        <v>0.01382841717473431</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.01453811211732341</v>
+        <v>0.009517077680661054</v>
       </c>
       <c r="C6">
-        <v>0.01448353990872953</v>
+        <v>0.009654539745217803</v>
       </c>
       <c r="D6">
-        <v>0.0156751651315148</v>
+        <v>0.01557233441443632</v>
       </c>
       <c r="E6">
+        <v>0.01604934458392117</v>
+      </c>
+      <c r="F6">
+        <v>0.01577240085560522</v>
+      </c>
+      <c r="G6">
+        <v>0.01589672383755635</v>
+      </c>
+      <c r="H6">
+        <v>0.009629193133115327</v>
+      </c>
+      <c r="I6">
+        <v>0.008472698646308913</v>
+      </c>
+      <c r="K6">
+        <v>0.01384536151238526</v>
+      </c>
+      <c r="L6">
+        <v>0.0146504308131942</v>
+      </c>
+      <c r="M6">
+        <v>0.009831118712552616</v>
+      </c>
+      <c r="N6">
         <v>0.01546616390243012</v>
       </c>
-      <c r="F6">
-        <v>0.01375802249868256</v>
-      </c>
-      <c r="G6">
-        <v>0.01557233441443632</v>
-      </c>
-      <c r="H6">
-        <v>0.01577240085560522</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.00924447528843932</v>
+        <v>0.005408212190620041</v>
       </c>
       <c r="C7">
-        <v>0.01114336363078913</v>
+        <v>0.00527844630556441</v>
       </c>
       <c r="D7">
-        <v>0.009995698546698776</v>
+        <v>0.01004193110047952</v>
       </c>
       <c r="E7">
+        <v>0.01014176848667393</v>
+      </c>
+      <c r="F7">
+        <v>0.01133352030490493</v>
+      </c>
+      <c r="G7">
+        <v>0.01140868413426933</v>
+      </c>
+      <c r="H7">
+        <v>0.005756506947841529</v>
+      </c>
+      <c r="I7">
+        <v>0.005099485197112228</v>
+      </c>
+      <c r="K7">
+        <v>0.01115821786398603</v>
+      </c>
+      <c r="L7">
+        <v>0.01145404332583725</v>
+      </c>
+      <c r="M7">
+        <v>0.007510322660953727</v>
+      </c>
+      <c r="N7">
         <v>0.0101776985618055</v>
       </c>
-      <c r="F7">
-        <v>0.01096865940835667</v>
-      </c>
-      <c r="G7">
-        <v>0.01004193110047952</v>
-      </c>
-      <c r="H7">
-        <v>0.01133352030490493</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="O7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>51</v>
       </c>
       <c r="B8">
-        <v>0.01391638913178672</v>
+        <v>0.009998719226041149</v>
       </c>
       <c r="C8">
-        <v>0.01392747988674876</v>
+        <v>0.009394402399986488</v>
+      </c>
+      <c r="D8">
+        <v>0.01400825360212203</v>
       </c>
       <c r="E8">
+        <v>0.01434687256008467</v>
+      </c>
+      <c r="F8">
+        <v>0.01494952048779194</v>
+      </c>
+      <c r="G8">
+        <v>0.0149539693748094</v>
+      </c>
+      <c r="H8">
+        <v>0.009351313316376316</v>
+      </c>
+      <c r="I8">
+        <v>0.008703273003071114</v>
+      </c>
+      <c r="J8">
+        <v>0.01463481985512898</v>
+      </c>
+      <c r="K8">
+        <v>0.01397863113879903</v>
+      </c>
+      <c r="L8">
+        <v>0.01444591618935643</v>
+      </c>
+      <c r="M8">
+        <v>0.009164650359734284</v>
+      </c>
+      <c r="N8">
         <v>0.01422252677237993</v>
       </c>
-      <c r="F8">
-        <v>0.01414284217524125</v>
-      </c>
-      <c r="G8">
-        <v>0.01400825360212203</v>
-      </c>
-      <c r="H8">
-        <v>0.01494952048779194</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>60</v>
       </c>
-      <c r="B9">
-        <v>0.02297328113023275</v>
-      </c>
       <c r="C9">
-        <v>0.02321654557084241</v>
+        <v>0.01722587447529334</v>
       </c>
       <c r="D9">
-        <v>0.02444121069778448</v>
+        <v>0.02301441832635509</v>
       </c>
       <c r="E9">
-        <v>0.02319618773188123</v>
+        <v>0.02450636830544736</v>
       </c>
       <c r="F9">
-        <v>0.02127127483735461</v>
+        <v>0.02364458766227541</v>
       </c>
       <c r="G9">
-        <v>0.0230236696937043</v>
+        <v>0.0238103513158485</v>
       </c>
       <c r="H9">
-        <v>0.0236530238756959</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.017930122587536</v>
+      </c>
+      <c r="I9">
+        <v>0.01621075677869521</v>
+      </c>
+      <c r="K9">
+        <v>0.02126706498302471</v>
+      </c>
+      <c r="L9">
+        <v>0.02148020583364056</v>
+      </c>
+      <c r="M9">
+        <v>0.01406497202111468</v>
+      </c>
+      <c r="N9">
+        <v>0.02319814202676077</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>65</v>
       </c>
-      <c r="B10">
-        <v>0.01003551891449216</v>
-      </c>
       <c r="C10">
-        <v>0.0112886966393587</v>
+        <v>0.004366407709543527</v>
       </c>
       <c r="D10">
-        <v>0.01274005035205235</v>
+        <v>0.01272332776864968</v>
       </c>
       <c r="E10">
+        <v>0.0129823825107822</v>
+      </c>
+      <c r="F10">
+        <v>0.0130788659010891</v>
+      </c>
+      <c r="G10">
+        <v>0.01306045505199224</v>
+      </c>
+      <c r="H10">
+        <v>0.004966194957690172</v>
+      </c>
+      <c r="I10">
+        <v>0.003616048904504246</v>
+      </c>
+      <c r="K10">
+        <v>0.01291674882357655</v>
+      </c>
+      <c r="L10">
+        <v>0.01354894618406173</v>
+      </c>
+      <c r="M10">
+        <v>0.005813408012111781</v>
+      </c>
+      <c r="N10">
         <v>0.01286755303867742</v>
       </c>
-      <c r="F10">
-        <v>0.01352310429995256</v>
-      </c>
-      <c r="G10">
-        <v>0.01272332776864968</v>
-      </c>
-      <c r="H10">
-        <v>0.0130788659010891</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
+      <c r="O10" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -697,13 +697,13 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.008568096829830972</v>
+        <v>0.008610171467262949</v>
       </c>
       <c r="D9">
-        <v>4001</v>
+        <v>13776</v>
       </c>
       <c r="F9">
-        <v>0.008490356781634662</v>
+        <v>0.00823969983449954</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -812,7 +812,7 @@
         <v>0.01017432562172689</v>
       </c>
       <c r="M2">
-        <v>0.00566593332810547</v>
+        <v>0.005856943013115348</v>
       </c>
       <c r="N2">
         <v>0.009937773292203548</v>
@@ -859,7 +859,7 @@
         <v>0.01441895633806201</v>
       </c>
       <c r="M3">
-        <v>0.00952594913725169</v>
+        <v>0.009854655950448689</v>
       </c>
       <c r="N3">
         <v>0.01466219525930604</v>
@@ -903,7 +903,7 @@
         <v>0.01092928372175739</v>
       </c>
       <c r="M4">
-        <v>0.003950512769327796</v>
+        <v>0.003456883308569874</v>
       </c>
       <c r="N4">
         <v>0.009626555087653104</v>
@@ -950,7 +950,7 @@
         <v>0.01013713343915515</v>
       </c>
       <c r="M5">
-        <v>0.006739198215134424</v>
+        <v>0.005532340794382064</v>
       </c>
       <c r="N5">
         <v>0.009337057705955193</v>
@@ -997,7 +997,7 @@
         <v>0.009972370393913453</v>
       </c>
       <c r="M6">
-        <v>0.008197206807718996</v>
+        <v>0.007954004261378312</v>
       </c>
       <c r="N6">
         <v>0.009552501811608223</v>
@@ -1044,7 +1044,7 @@
         <v>0.01300989409439348</v>
       </c>
       <c r="M7">
-        <v>0.007446600832868254</v>
+        <v>0.008591590011355347</v>
       </c>
       <c r="N7">
         <v>0.01382384259772151</v>
@@ -1091,7 +1091,7 @@
         <v>0.01229328464496679</v>
       </c>
       <c r="M8">
-        <v>0.007243678331003815</v>
+        <v>0.008138660881184048</v>
       </c>
       <c r="N8">
         <v>0.01185550826979428</v>
@@ -1135,7 +1135,7 @@
         <v>0.01803104428595479</v>
       </c>
       <c r="M9">
-        <v>0.01335366119045482</v>
+        <v>0.01193512373368433</v>
       </c>
       <c r="N9">
         <v>0.01841778424157687</v>
@@ -1179,7 +1179,7 @@
         <v>0.01590581209593198</v>
       </c>
       <c r="M10">
-        <v>0.01250619120447279</v>
+        <v>0.01102096708106636</v>
       </c>
       <c r="N10">
         <v>0.01564635671178411</v>
@@ -1223,7 +1223,7 @@
         <v>0.01539481584644663</v>
       </c>
       <c r="M11">
-        <v>0.009796456284593941</v>
+        <v>0.009031699287526389</v>
       </c>
       <c r="N11">
         <v>0.01592135839418957</v>
@@ -1267,7 +1267,7 @@
         <v>0.01030877831127568</v>
       </c>
       <c r="M12">
-        <v>0.005818861402310535</v>
+        <v>0.006166760538329118</v>
       </c>
       <c r="N12">
         <v>0.009901716526783224</v>
@@ -1314,7 +1314,7 @@
         <v>0.01133031519574467</v>
       </c>
       <c r="M13">
-        <v>0.005397280924621732</v>
+        <v>0.006448303899849692</v>
       </c>
       <c r="N13">
         <v>0.01099031159752283</v>
@@ -1361,7 +1361,7 @@
         <v>0.01878294903135721</v>
       </c>
       <c r="M14">
-        <v>0.01006386345681559</v>
+        <v>0.0110972387447002</v>
       </c>
       <c r="N14">
         <v>0.0182425130023461</v>
@@ -1402,7 +1402,7 @@
         <v>0.02171427731446102</v>
       </c>
       <c r="M15">
-        <v>0.01344614400831168</v>
+        <v>0.0144414262029847</v>
       </c>
       <c r="N15">
         <v>0.02341880358784819</v>
@@ -1443,7 +1443,7 @@
         <v>0.01448492557448118</v>
       </c>
       <c r="M16">
-        <v>0.006720830376801823</v>
+        <v>0.006110122456365852</v>
       </c>
       <c r="N16">
         <v>0.01379799367002673</v>
@@ -1487,7 +1487,7 @@
         <v>0.01412258315305783</v>
       </c>
       <c r="M17">
-        <v>0.008766012617558057</v>
+        <v>0.008214677607617045</v>
       </c>
       <c r="N17">
         <v>0.01402674049168545</v>
@@ -1588,7 +1588,7 @@
         <v>0.01358242827966125</v>
       </c>
       <c r="M2">
-        <v>0.008018386241612611</v>
+        <v>0.008170951339340614</v>
       </c>
       <c r="N2">
         <v>0.01371601924807428</v>
@@ -1635,7 +1635,7 @@
         <v>0.01036387478723531</v>
       </c>
       <c r="M3">
-        <v>0.005891239262919751</v>
+        <v>0.004794035705414731</v>
       </c>
       <c r="N3">
         <v>0.009444595549276734</v>
@@ -1682,7 +1682,7 @@
         <v>0.01301185325199213</v>
       </c>
       <c r="M4">
-        <v>0.007897048979100301</v>
+        <v>0.00827608866833553</v>
       </c>
       <c r="N4">
         <v>0.01319482190655445</v>
@@ -1729,7 +1729,7 @@
         <v>0.01449824241263426</v>
       </c>
       <c r="M5">
-        <v>0.009326892333927082</v>
+        <v>0.009607419288093394</v>
       </c>
       <c r="N5">
         <v>0.01345294770498154</v>
@@ -1773,7 +1773,7 @@
         <v>0.0146504308131942</v>
       </c>
       <c r="M6">
-        <v>0.009831118712552616</v>
+        <v>0.009090228649992252</v>
       </c>
       <c r="N6">
         <v>0.01546616390243012</v>
@@ -1817,7 +1817,7 @@
         <v>0.01145404332583725</v>
       </c>
       <c r="M7">
-        <v>0.007510322660953727</v>
+        <v>0.005864340415144245</v>
       </c>
       <c r="N7">
         <v>0.0101776985618055</v>
@@ -1864,7 +1864,7 @@
         <v>0.01444591618935643</v>
       </c>
       <c r="M8">
-        <v>0.009164650359734284</v>
+        <v>0.009197187681204502</v>
       </c>
       <c r="N8">
         <v>0.01422252677237993</v>
@@ -1905,7 +1905,7 @@
         <v>0.02148020583364056</v>
       </c>
       <c r="M9">
-        <v>0.01406497202111468</v>
+        <v>0.01451989693441189</v>
       </c>
       <c r="N9">
         <v>0.02319814202676077</v>
@@ -1946,7 +1946,7 @@
         <v>0.01354894618406173</v>
       </c>
       <c r="M10">
-        <v>0.005813408012111781</v>
+        <v>0.005743703283808914</v>
       </c>
       <c r="N10">
         <v>0.01286755303867742</v>

--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>ibes_ex_fwd</t>
   </si>
@@ -63,6 +63,9 @@
     <t>ni_new industry_qcut x</t>
   </si>
   <si>
+    <t>ibes_new industry_qcut x -re</t>
+  </si>
+  <si>
     <t>ibes_new industry_in</t>
   </si>
   <si>
@@ -100,6 +103,12 @@
   </si>
   <si>
     <t>ni_new industry_qcut x_in</t>
+  </si>
+  <si>
+    <t>ibes_new industry_qcut x -re_in</t>
+  </si>
+  <si>
+    <t>ibes_new industry_qcut x -re_ex</t>
   </si>
   <si>
     <t>industry_group_name</t>
@@ -532,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,6 +729,29 @@
         <v>0.01353023904628762</v>
       </c>
     </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C11">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="D11">
+        <v>14467</v>
+      </c>
+      <c r="E11">
+        <v>14467</v>
+      </c>
+      <c r="F11">
+        <v>0.007470405871983062</v>
+      </c>
+      <c r="G11">
+        <v>0.007461367279642713</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -727,57 +759,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>101010</v>
       </c>
@@ -817,11 +855,17 @@
       <c r="N2">
         <v>0.009937773292203548</v>
       </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>0.005069465636389264</v>
+      </c>
+      <c r="P2">
+        <v>0.005137630811895924</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>101020</v>
       </c>
@@ -864,11 +908,17 @@
       <c r="N3">
         <v>0.01466219525930604</v>
       </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>0.009113628771161968</v>
+      </c>
+      <c r="P3">
+        <v>0.009165260887712884</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>201020</v>
       </c>
@@ -908,11 +958,17 @@
       <c r="N4">
         <v>0.009626555087653104</v>
       </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>0.002594149361713525</v>
+      </c>
+      <c r="P4">
+        <v>0.002551501118281548</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>201030</v>
       </c>
@@ -955,11 +1011,17 @@
       <c r="N5">
         <v>0.009337057705955193</v>
       </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>0.003873068672001275</v>
+      </c>
+      <c r="P5">
+        <v>0.003849310440014205</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>301010</v>
       </c>
@@ -1002,11 +1064,17 @@
       <c r="N6">
         <v>0.009552501811608223</v>
       </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>0.007320445607702735</v>
+      </c>
+      <c r="P6">
+        <v>0.007332909940134991</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>302020</v>
       </c>
@@ -1049,11 +1117,17 @@
       <c r="N7">
         <v>0.01382384259772151</v>
       </c>
-      <c r="O7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>0.00832300192134996</v>
+      </c>
+      <c r="P7">
+        <v>0.008344793432098633</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>351020</v>
       </c>
@@ -1096,11 +1170,17 @@
       <c r="N8">
         <v>0.01185550826979428</v>
       </c>
-      <c r="O8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>0.006707227811444298</v>
+      </c>
+      <c r="P8">
+        <v>0.006957211155524634</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>401010</v>
       </c>
@@ -1140,11 +1220,17 @@
       <c r="N9">
         <v>0.01841778424157687</v>
       </c>
-      <c r="O9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>0.01045955756065988</v>
+      </c>
+      <c r="P9">
+        <v>0.01046578826910552</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>501010</v>
       </c>
@@ -1184,11 +1270,17 @@
       <c r="N10">
         <v>0.01564635671178411</v>
       </c>
-      <c r="O10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>0.0114320428383433</v>
+      </c>
+      <c r="P10">
+        <v>0.01136958986983172</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>502030</v>
       </c>
@@ -1228,11 +1320,17 @@
       <c r="N11">
         <v>0.01592135839418957</v>
       </c>
-      <c r="O11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>0.008203823748128069</v>
+      </c>
+      <c r="P11">
+        <v>0.008250257622011868</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>502050</v>
       </c>
@@ -1272,11 +1370,17 @@
       <c r="N12">
         <v>0.009901716526783224</v>
       </c>
-      <c r="O12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>0.00542328498801314</v>
+      </c>
+      <c r="P12">
+        <v>0.005358297305759044</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>502060</v>
       </c>
@@ -1319,11 +1423,17 @@
       <c r="N13">
         <v>0.01099031159752283</v>
       </c>
-      <c r="O13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13">
+        <v>0.006273625720745072</v>
+      </c>
+      <c r="P13">
+        <v>0.0062659788981695</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>552010</v>
       </c>
@@ -1366,11 +1476,17 @@
       <c r="N14">
         <v>0.0182425130023461</v>
       </c>
-      <c r="O14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14">
+        <v>0.01066436057189531</v>
+      </c>
+      <c r="P14">
+        <v>0.01045491189153714</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>601010</v>
       </c>
@@ -1407,11 +1523,17 @@
       <c r="N15">
         <v>0.02341880358784819</v>
       </c>
-      <c r="O15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15">
+        <v>0.01628181854674657</v>
+      </c>
+      <c r="P15">
+        <v>0.01582543403244299</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>651010</v>
       </c>
@@ -1448,11 +1570,17 @@
       <c r="N16">
         <v>0.01379799367002673</v>
       </c>
-      <c r="O16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>0.003691301259524189</v>
+      </c>
+      <c r="P16">
+        <v>0.003726778594503292</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>999999</v>
       </c>
@@ -1491,6 +1619,12 @@
       </c>
       <c r="N17">
         <v>0.01402674049168545</v>
+      </c>
+      <c r="O17">
+        <v>0.007374403667730927</v>
+      </c>
+      <c r="P17">
+        <v>0.007416000618412536</v>
       </c>
     </row>
   </sheetData>
@@ -1500,57 +1634,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -1593,11 +1733,17 @@
       <c r="N2">
         <v>0.01371601924807428</v>
       </c>
-      <c r="O2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>0.007348701899552777</v>
+      </c>
+      <c r="P2">
+        <v>0.007392656289276972</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1640,11 +1786,17 @@
       <c r="N3">
         <v>0.009444595549276734</v>
       </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>0.003432746777096179</v>
+      </c>
+      <c r="P3">
+        <v>0.003424489686959389</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>30</v>
       </c>
@@ -1687,11 +1839,17 @@
       <c r="N4">
         <v>0.01319482190655445</v>
       </c>
-      <c r="O4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>0.007633060716904409</v>
+      </c>
+      <c r="P4">
+        <v>0.007685380616656338</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>35</v>
       </c>
@@ -1734,11 +1892,17 @@
       <c r="N5">
         <v>0.01345294770498154</v>
       </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>0.008252711826202765</v>
+      </c>
+      <c r="P5">
+        <v>0.008359329753639691</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>40</v>
       </c>
@@ -1778,11 +1942,17 @@
       <c r="N6">
         <v>0.01546616390243012</v>
       </c>
-      <c r="O6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>0.008394866819490377</v>
+      </c>
+      <c r="P6">
+        <v>0.00844139629105423</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>45</v>
       </c>
@@ -1822,11 +1992,17 @@
       <c r="N7">
         <v>0.0101776985618055</v>
       </c>
-      <c r="O7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>0.005117260647091976</v>
+      </c>
+      <c r="P7">
+        <v>0.005147916726609951</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>51</v>
       </c>
@@ -1869,11 +2045,17 @@
       <c r="N8">
         <v>0.01422252677237993</v>
       </c>
-      <c r="O8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>0.008694380590622388</v>
+      </c>
+      <c r="P8">
+        <v>0.008666658517929974</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>60</v>
       </c>
@@ -1910,11 +2092,17 @@
       <c r="N9">
         <v>0.02319814202676077</v>
       </c>
-      <c r="O9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>0.01630349525206779</v>
+      </c>
+      <c r="P9">
+        <v>0.01585080165039518</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>65</v>
       </c>
@@ -1951,8 +2139,14 @@
       <c r="N10">
         <v>0.01286755303867742</v>
       </c>
-      <c r="O10" t="s">
-        <v>52</v>
+      <c r="O10">
+        <v>0.003546953968733167</v>
+      </c>
+      <c r="P10">
+        <v>0.003557107575662266</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ibes_ex_fwd</t>
   </si>
@@ -431,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,20 +665,6 @@
         <v>0.007461367279642713</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>0.008869719261200689</v>
-      </c>
-      <c r="F13">
-        <v>9000</v>
-      </c>
-      <c r="I13">
-        <v>0.009339954370972705</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -14,66 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>ibes_ex_fwd</t>
-  </si>
-  <si>
-    <t>ibes_fwdepsqcut</t>
-  </si>
-  <si>
-    <t>ibes_in_fwd</t>
-  </si>
-  <si>
-    <t>len_ex_fwd</t>
-  </si>
-  <si>
-    <t>len_fwdepsqcut</t>
-  </si>
-  <si>
-    <t>len_in_fwd</t>
-  </si>
-  <si>
-    <t>lgbm_ex_fwd</t>
-  </si>
-  <si>
-    <t>lgbm_fwdepsqcut</t>
-  </si>
-  <si>
-    <t>lgbm_in_fwd</t>
-  </si>
-  <si>
-    <t>('ibes', '1')</t>
-  </si>
-  <si>
-    <t>ibes_new industry</t>
-  </si>
-  <si>
-    <t>ni_new industry</t>
-  </si>
-  <si>
-    <t>ni_sector</t>
-  </si>
-  <si>
-    <t>ibes_sector</t>
-  </si>
-  <si>
-    <t>ibes_new industry_qcut x</t>
-  </si>
-  <si>
-    <t>ni_sector_qcut x</t>
-  </si>
-  <si>
-    <t>ni_entire</t>
-  </si>
-  <si>
-    <t>ibes_entire</t>
-  </si>
-  <si>
-    <t>ni_new industry_qcut x</t>
-  </si>
-  <si>
-    <t>ibes_new industry_qcut x -re</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>consensus</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>lgbm</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>ibes_2_ni</t>
+  </si>
+  <si>
+    <t>ibes_2_fwdeps</t>
+  </si>
+  <si>
+    <t>ibes_2_fwdepsqcut</t>
+  </si>
+  <si>
+    <t>ibes_1_fwdepsqcut</t>
+  </si>
+  <si>
+    <t>ibes_6_niqcut</t>
+  </si>
+  <si>
+    <t>ni_1_epsqcut</t>
+  </si>
+  <si>
+    <t>ni_2_epsqcut</t>
+  </si>
+  <si>
+    <t>ni_1_fwdepsqcut</t>
+  </si>
+  <si>
+    <t>ni_2_fwdepsqcut</t>
+  </si>
+  <si>
+    <t>ni_6_epsqcut</t>
+  </si>
+  <si>
+    <t>ni_6_fwdepsqcut</t>
   </si>
 </sst>
 </file>
@@ -431,13 +416,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,222 +435,159 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C2">
+        <v>14467</v>
+      </c>
+      <c r="D2">
+        <v>0.007461390831007631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>0.008869719261200689</v>
-      </c>
-      <c r="F2">
-        <v>9000</v>
-      </c>
-      <c r="I2">
-        <v>0.009339954370972705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B3">
         <v>0.008604109548964898</v>
       </c>
+      <c r="C3">
+        <v>14467</v>
+      </c>
       <c r="D3">
-        <v>0.008057441746575416</v>
-      </c>
-      <c r="E3">
+        <v>0.007470316543135013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C4">
         <v>14467</v>
       </c>
-      <c r="G3">
-        <v>9486</v>
-      </c>
-      <c r="H3">
-        <v>0.008221225012733875</v>
-      </c>
-      <c r="J3">
-        <v>0.007785451251089948</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="D4">
+        <v>0.008215291392886251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.008610171467262949</v>
+      </c>
+      <c r="C5">
+        <v>13776</v>
+      </c>
+      <c r="D5">
+        <v>0.008239669139180731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.008673141980908865</v>
+      </c>
+      <c r="C6">
+        <v>13402</v>
+      </c>
+      <c r="D6">
+        <v>0.008290320575140078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.00930690016118596</v>
+      </c>
+      <c r="C7">
+        <v>14467</v>
+      </c>
+      <c r="D7">
+        <v>0.01322805762894923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.009384087290453671</v>
+      </c>
+      <c r="C8">
+        <v>14289</v>
+      </c>
+      <c r="D8">
+        <v>0.01340126360609522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B4">
-        <v>0.009384087290453671</v>
-      </c>
-      <c r="D4">
-        <v>0.009384087290453671</v>
-      </c>
-      <c r="E4">
-        <v>14289</v>
-      </c>
-      <c r="G4">
-        <v>14289</v>
-      </c>
-      <c r="H4">
-        <v>0.01373872103396161</v>
-      </c>
-      <c r="J4">
-        <v>0.01340097877107649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0.009486213628492479</v>
-      </c>
-      <c r="D5">
-        <v>0.009486213628492479</v>
-      </c>
-      <c r="E5">
-        <v>14246</v>
-      </c>
-      <c r="G5">
-        <v>14246</v>
-      </c>
-      <c r="H5">
-        <v>0.01403172884347196</v>
-      </c>
-      <c r="J5">
-        <v>0.01400745198307837</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>0.008673141980908865</v>
-      </c>
-      <c r="G6">
-        <v>13402</v>
-      </c>
-      <c r="J6">
-        <v>0.008290137046021794</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>0.008604109548964898</v>
-      </c>
-      <c r="G7">
-        <v>14467</v>
-      </c>
-      <c r="J7">
-        <v>0.007511909559928318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>0.009038742197873241</v>
-      </c>
-      <c r="G8">
-        <v>4248</v>
-      </c>
-      <c r="J8">
-        <v>0.01264312937616183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B9">
         <v>0.00930690016118596</v>
       </c>
+      <c r="C9">
+        <v>14467</v>
+      </c>
       <c r="D9">
-        <v>0.00930690016118596</v>
-      </c>
-      <c r="E9">
-        <v>14467</v>
-      </c>
-      <c r="G9">
-        <v>14467</v>
-      </c>
-      <c r="H9">
-        <v>0.01367235834876642</v>
-      </c>
-      <c r="J9">
-        <v>0.01322805762894923</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>0.01367246194968542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>0.008610171467262949</v>
-      </c>
-      <c r="E10">
-        <v>13776</v>
-      </c>
-      <c r="H10">
-        <v>0.00823969983449954</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0.009384087290453671</v>
+      </c>
+      <c r="C10">
+        <v>14289</v>
+      </c>
+      <c r="D10">
+        <v>0.01373872658434699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.009486213628492479</v>
+      </c>
+      <c r="C11">
+        <v>14246</v>
       </c>
       <c r="D11">
-        <v>0.009364158275049096</v>
-      </c>
-      <c r="G11">
-        <v>14467</v>
-      </c>
-      <c r="J11">
-        <v>0.01353023904628762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0.01400753774994666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0.008604109548964898</v>
+        <v>0.009492788784155153</v>
+      </c>
+      <c r="C12">
+        <v>14279</v>
       </c>
       <c r="D12">
-        <v>0.008604109548964898</v>
-      </c>
-      <c r="E12">
-        <v>14467</v>
-      </c>
-      <c r="G12">
-        <v>14467</v>
-      </c>
-      <c r="H12">
-        <v>0.007470405871983062</v>
-      </c>
-      <c r="J12">
-        <v>0.007461367279642713</v>
+        <v>0.01403873064787338</v>
       </c>
     </row>
   </sheetData>

--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Clair/PycharmProjects/ai_value/results_lgbm/compare_with_ibes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8464F251-A363-FA4C-85AA-EF5D7049F62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">average!$A$1:$D$19</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterateDelta="9.9999999999994451E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>consensus</t>
   </si>
@@ -28,6 +47,9 @@
     <t>index</t>
   </si>
   <si>
+    <t>ibes_6_ni</t>
+  </si>
+  <si>
     <t>ibes_2_ni</t>
   </si>
   <si>
@@ -43,12 +65,24 @@
     <t>ibes_6_niqcut</t>
   </si>
   <si>
+    <t>ibes_1_fwdepsqcut_dense</t>
+  </si>
+  <si>
+    <t>ni_2_niqcut</t>
+  </si>
+  <si>
+    <t>ni_6_fwdeps</t>
+  </si>
+  <si>
     <t>ni_1_epsqcut</t>
   </si>
   <si>
     <t>ni_2_epsqcut</t>
   </si>
   <si>
+    <t>ni_2_fwdeps</t>
+  </si>
+  <si>
     <t>ni_1_fwdepsqcut</t>
   </si>
   <si>
@@ -59,13 +93,19 @@
   </si>
   <si>
     <t>ni_6_fwdepsqcut</t>
+  </si>
+  <si>
+    <t>ni_6_niqcut</t>
+  </si>
+  <si>
+    <t>ibes_2_niqcut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +117,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,17 +172,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -174,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +273,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,6 +325,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,14 +518,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="249" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -436,161 +545,272 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.008604109548964898</v>
+        <v>7.4774416114006493E-3</v>
       </c>
       <c r="C2">
-        <v>14467</v>
+        <v>568</v>
       </c>
       <c r="D2">
-        <v>0.007461390831007631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6.9521974415974377E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.008604109548964898</v>
+        <v>8.6041095489648983E-3</v>
       </c>
       <c r="C3">
         <v>14467</v>
       </c>
       <c r="D3">
-        <v>0.007470316543135013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>7.4613908310076308E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.008604109548964898</v>
+        <v>8.6041095489648983E-3</v>
       </c>
       <c r="C4">
         <v>14467</v>
       </c>
       <c r="D4">
-        <v>0.008215291392886251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>7.4703165431350129E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.008610171467262949</v>
+        <v>8.6041095489648983E-3</v>
       </c>
       <c r="C5">
+        <v>14467</v>
+      </c>
+      <c r="D5">
+        <v>8.2152913928862509E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8.6101714672629486E-3</v>
+      </c>
+      <c r="C6" s="3">
         <v>13776</v>
       </c>
-      <c r="D5">
-        <v>0.008239669139180731</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.008673141980908865</v>
-      </c>
-      <c r="C6">
-        <v>13402</v>
-      </c>
-      <c r="D6">
-        <v>0.008290320575140078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="3">
+        <v>8.239669139180731E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.00930690016118596</v>
+        <v>8.6731419809088651E-3</v>
       </c>
       <c r="C7">
-        <v>14467</v>
+        <v>13402</v>
       </c>
       <c r="D7">
-        <v>0.01322805762894923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+        <v>8.2903205751400783E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>0.009384087290453671</v>
-      </c>
-      <c r="C8">
-        <v>14289</v>
-      </c>
-      <c r="D8">
-        <v>0.01340126360609522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="3">
+        <v>8.6589441840465731E-3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>11650</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9.0657110962312683E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.00930690016118596</v>
+        <v>8.5283509711310858E-3</v>
       </c>
       <c r="C9">
-        <v>14467</v>
+        <v>2695</v>
       </c>
       <c r="D9">
-        <v>0.01367246194968542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>1.262906986070185E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.009384087290453671</v>
+        <v>9.038742197873241E-3</v>
       </c>
       <c r="C10">
-        <v>14289</v>
+        <v>4248</v>
       </c>
       <c r="D10">
-        <v>0.01373872658434699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>1.26430822285556E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.009486213628492479</v>
+        <v>9.3069001611859603E-3</v>
       </c>
       <c r="C11">
-        <v>14246</v>
+        <v>14467</v>
       </c>
       <c r="D11">
-        <v>0.01400753774994666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>1.3228057628949229E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.009492788784155153</v>
+        <v>9.3840872904536708E-3</v>
       </c>
       <c r="C12">
+        <v>14289</v>
+      </c>
+      <c r="D12">
+        <v>1.3401263606095219E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>8.6448079918162533E-3</v>
+      </c>
+      <c r="C13">
+        <v>8817</v>
+      </c>
+      <c r="D13">
+        <v>1.3415102948218131E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>9.3069001611859603E-3</v>
+      </c>
+      <c r="C14">
+        <v>14467</v>
+      </c>
+      <c r="D14">
+        <v>1.3672461949685419E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>9.3840872904536708E-3</v>
+      </c>
+      <c r="C15">
+        <v>14289</v>
+      </c>
+      <c r="D15">
+        <v>1.3738726584346991E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>9.4862136284924788E-3</v>
+      </c>
+      <c r="C16">
+        <v>14246</v>
+      </c>
+      <c r="D16">
+        <v>1.4007537749946661E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>9.4927887841551525E-3</v>
+      </c>
+      <c r="C17">
         <v>14279</v>
       </c>
-      <c r="D12">
-        <v>0.01403873064787338</v>
+      <c r="D17">
+        <v>1.4038730647873379E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1.2284657043992781E-2</v>
+      </c>
+      <c r="C18">
+        <v>172</v>
+      </c>
+      <c r="D18">
+        <v>1.536086770476644E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>8.0573748375082702E-3</v>
+      </c>
+      <c r="C19">
+        <v>9416</v>
+      </c>
+      <c r="D19">
+        <v>0.1837138298836869</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D19" xr:uid="{6095B2EB-9B77-2946-AF56-03942DB49ED8}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="11650"/>
+        <filter val="13402"/>
+        <filter val="13776"/>
+        <filter val="14246"/>
+        <filter val="14279"/>
+        <filter val="14289"/>
+        <filter val="14467"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Clair/PycharmProjects/ai_value/results_lgbm/compare_with_ibes/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8464F251-A363-FA4C-85AA-EF5D7049F62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">average!$A$1:$D$19</definedName>
-  </definedNames>
-  <calcPr calcId="191029" iterateDelta="9.9999999999994451E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>consensus</t>
   </si>
@@ -56,6 +37,9 @@
     <t>ibes_2_fwdeps</t>
   </si>
   <si>
+    <t>ibes_2_fwdepsqcut_ibes_new industry_monthly</t>
+  </si>
+  <si>
     <t>ibes_2_fwdepsqcut</t>
   </si>
   <si>
@@ -63,6 +47,9 @@
   </si>
   <si>
     <t>ibes_6_niqcut</t>
+  </si>
+  <si>
+    <t>ibes_1_fwdepsqcut_dense_small</t>
   </si>
   <si>
     <t>ibes_1_fwdepsqcut_dense</t>
@@ -104,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,21 +104,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,29 +144,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -241,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,27 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,24 +267,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -518,20 +442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="249" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -545,272 +463,301 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>7.4774416114006493E-3</v>
+        <v>0.007477441611400649</v>
       </c>
       <c r="C2">
         <v>568</v>
       </c>
       <c r="D2">
-        <v>6.9521974415974377E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.006952197441597438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>8.6041095489648983E-3</v>
+        <v>0.008604109548964898</v>
       </c>
       <c r="C3">
         <v>14467</v>
       </c>
       <c r="D3">
-        <v>7.4613908310076308E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.007461390831007631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8.6041095489648983E-3</v>
+        <v>0.008604109548964898</v>
       </c>
       <c r="C4">
         <v>14467</v>
       </c>
       <c r="D4">
-        <v>7.4703165431350129E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.007470316543135013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>8.6041095489648983E-3</v>
+        <v>0.008085902054067038</v>
       </c>
       <c r="C5">
+        <v>8620</v>
+      </c>
+      <c r="D5">
+        <v>0.007745530837691133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C6">
         <v>14467</v>
       </c>
-      <c r="D5">
-        <v>8.2152913928862509E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
-        <v>8.6101714672629486E-3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>13776</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8.239669139180731E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0.008215291392886251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>8.6731419809088651E-3</v>
+        <v>0.008610171467262949</v>
       </c>
       <c r="C7">
+        <v>13776</v>
+      </c>
+      <c r="D7">
+        <v>0.008239669139180731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.008673141980908865</v>
+      </c>
+      <c r="C8">
         <v>13402</v>
       </c>
-      <c r="D7">
-        <v>8.2903205751400783E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <v>8.6589441840465731E-3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>11650</v>
-      </c>
-      <c r="D8" s="3">
-        <v>9.0657110962312683E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0.008290320575140078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>8.5283509711310858E-3</v>
+        <v>0.008579285668533483</v>
       </c>
       <c r="C9">
-        <v>2695</v>
+        <v>6736</v>
       </c>
       <c r="D9">
-        <v>1.262906986070185E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.009053436204286813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>9.038742197873241E-3</v>
+        <v>0.008658944184046573</v>
       </c>
       <c r="C10">
+        <v>11650</v>
+      </c>
+      <c r="D10">
+        <v>0.009065711096231268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.008658944184046573</v>
+      </c>
+      <c r="C11">
+        <v>11650</v>
+      </c>
+      <c r="D11">
+        <v>0.009065711096231268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.008528350971131086</v>
+      </c>
+      <c r="C12">
+        <v>2695</v>
+      </c>
+      <c r="D12">
+        <v>0.01262906986070185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.009038742197873241</v>
+      </c>
+      <c r="C13">
         <v>4248</v>
       </c>
-      <c r="D10">
-        <v>1.26430822285556E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>9.3069001611859603E-3</v>
-      </c>
-      <c r="C11">
-        <v>14467</v>
-      </c>
-      <c r="D11">
-        <v>1.3228057628949229E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>9.3840872904536708E-3</v>
-      </c>
-      <c r="C12">
-        <v>14289</v>
-      </c>
-      <c r="D12">
-        <v>1.3401263606095219E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="D13">
+        <v>0.0126430822285556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>8.6448079918162533E-3</v>
-      </c>
-      <c r="C13">
-        <v>8817</v>
-      </c>
-      <c r="D13">
-        <v>1.3415102948218131E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B14">
-        <v>9.3069001611859603E-3</v>
+        <v>0.00930690016118596</v>
       </c>
       <c r="C14">
         <v>14467</v>
       </c>
       <c r="D14">
-        <v>1.3672461949685419E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.01322805762894923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>9.3840872904536708E-3</v>
+        <v>0.009384087290453671</v>
       </c>
       <c r="C15">
         <v>14289</v>
       </c>
       <c r="D15">
-        <v>1.3738726584346991E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.01340126360609522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.008644807991816253</v>
+      </c>
+      <c r="C16">
+        <v>8817</v>
+      </c>
+      <c r="D16">
+        <v>0.01341510294821813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>9.4862136284924788E-3</v>
-      </c>
-      <c r="C16">
+      <c r="B17">
+        <v>0.00930690016118596</v>
+      </c>
+      <c r="C17">
+        <v>14467</v>
+      </c>
+      <c r="D17">
+        <v>0.01367246194968542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0.009384087290453671</v>
+      </c>
+      <c r="C18">
+        <v>14289</v>
+      </c>
+      <c r="D18">
+        <v>0.01373872658434699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0.009486213628492479</v>
+      </c>
+      <c r="C19">
         <v>14246</v>
       </c>
-      <c r="D16">
-        <v>1.4007537749946661E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>9.4927887841551525E-3</v>
-      </c>
-      <c r="C17">
+      <c r="D19">
+        <v>0.01400753774994666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0.009492788784155153</v>
+      </c>
+      <c r="C20">
         <v>14279</v>
       </c>
-      <c r="D17">
-        <v>1.4038730647873379E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>1.2284657043992781E-2</v>
-      </c>
-      <c r="C18">
+      <c r="D20">
+        <v>0.01403873064787338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0.01228465704399278</v>
+      </c>
+      <c r="C21">
         <v>172</v>
       </c>
-      <c r="D18">
-        <v>1.536086770476644E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>8.0573748375082702E-3</v>
-      </c>
-      <c r="C19">
+      <c r="D21">
+        <v>0.01536086770476644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0.00805737483750827</v>
+      </c>
+      <c r="C22">
         <v>9416</v>
       </c>
-      <c r="D19">
+      <c r="D22">
         <v>0.1837138298836869</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D19" xr:uid="{6095B2EB-9B77-2946-AF56-03942DB49ED8}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="11650"/>
-        <filter val="13402"/>
-        <filter val="13776"/>
-        <filter val="14246"/>
-        <filter val="14279"/>
-        <filter val="14289"/>
-        <filter val="14467"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Clair/PycharmProjects/ai_value/results_lgbm/compare_with_ibes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8464F251-A363-FA4C-85AA-EF5D7049F62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">average!$A$1:$D$19</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterateDelta="9.9999999999994451E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>consensus</t>
   </si>
@@ -37,9 +56,6 @@
     <t>ibes_2_fwdeps</t>
   </si>
   <si>
-    <t>ibes_2_fwdepsqcut_ibes_new industry_monthly</t>
-  </si>
-  <si>
     <t>ibes_2_fwdepsqcut</t>
   </si>
   <si>
@@ -47,9 +63,6 @@
   </si>
   <si>
     <t>ibes_6_niqcut</t>
-  </si>
-  <si>
-    <t>ibes_1_fwdepsqcut_dense_small</t>
   </si>
   <si>
     <t>ibes_1_fwdepsqcut_dense</t>
@@ -91,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +117,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,17 +172,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -201,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +273,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +325,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,14 +518,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="249" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -463,301 +545,272 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.007477441611400649</v>
+        <v>7.4774416114006493E-3</v>
       </c>
       <c r="C2">
         <v>568</v>
       </c>
       <c r="D2">
-        <v>0.006952197441597438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6.9521974415974377E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.008604109548964898</v>
+        <v>8.6041095489648983E-3</v>
       </c>
       <c r="C3">
         <v>14467</v>
       </c>
       <c r="D3">
-        <v>0.007461390831007631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>7.4613908310076308E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.008604109548964898</v>
+        <v>8.6041095489648983E-3</v>
       </c>
       <c r="C4">
         <v>14467</v>
       </c>
       <c r="D4">
-        <v>0.007470316543135013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>7.4703165431350129E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.008085902054067038</v>
+        <v>8.6041095489648983E-3</v>
       </c>
       <c r="C5">
-        <v>8620</v>
+        <v>14467</v>
       </c>
       <c r="D5">
-        <v>0.007745530837691133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+        <v>8.2152913928862509E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0.008604109548964898</v>
-      </c>
-      <c r="C6">
-        <v>14467</v>
-      </c>
-      <c r="D6">
-        <v>0.008215291392886251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="3">
+        <v>8.6101714672629486E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>13776</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8.239669139180731E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.008610171467262949</v>
+        <v>8.6731419809088651E-3</v>
       </c>
       <c r="C7">
-        <v>13776</v>
+        <v>13402</v>
       </c>
       <c r="D7">
-        <v>0.008239669139180731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+        <v>8.2903205751400783E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>0.008673141980908865</v>
-      </c>
-      <c r="C8">
-        <v>13402</v>
-      </c>
-      <c r="D8">
-        <v>0.008290320575140078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="3">
+        <v>8.6589441840465731E-3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>11650</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9.0657110962312683E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.008579285668533483</v>
+        <v>8.5283509711310858E-3</v>
       </c>
       <c r="C9">
-        <v>6736</v>
+        <v>2695</v>
       </c>
       <c r="D9">
-        <v>0.009053436204286813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>1.262906986070185E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.008658944184046573</v>
+        <v>9.038742197873241E-3</v>
       </c>
       <c r="C10">
-        <v>11650</v>
+        <v>4248</v>
       </c>
       <c r="D10">
-        <v>0.009065711096231268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>1.26430822285556E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>0.008658944184046573</v>
+        <v>9.3069001611859603E-3</v>
       </c>
       <c r="C11">
-        <v>11650</v>
+        <v>14467</v>
       </c>
       <c r="D11">
-        <v>0.009065711096231268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>1.3228057628949229E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0.008528350971131086</v>
+        <v>9.3840872904536708E-3</v>
       </c>
       <c r="C12">
-        <v>2695</v>
+        <v>14289</v>
       </c>
       <c r="D12">
-        <v>0.01262906986070185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1.3401263606095219E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>0.009038742197873241</v>
+        <v>8.6448079918162533E-3</v>
       </c>
       <c r="C13">
-        <v>4248</v>
+        <v>8817</v>
       </c>
       <c r="D13">
-        <v>0.0126430822285556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>1.3415102948218131E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>0.00930690016118596</v>
+        <v>9.3069001611859603E-3</v>
       </c>
       <c r="C14">
         <v>14467</v>
       </c>
       <c r="D14">
-        <v>0.01322805762894923</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>1.3672461949685419E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>0.009384087290453671</v>
+        <v>9.3840872904536708E-3</v>
       </c>
       <c r="C15">
         <v>14289</v>
       </c>
       <c r="D15">
-        <v>0.01340126360609522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>1.3738726584346991E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>0.008644807991816253</v>
+        <v>9.4862136284924788E-3</v>
       </c>
       <c r="C16">
-        <v>8817</v>
+        <v>14246</v>
       </c>
       <c r="D16">
-        <v>0.01341510294821813</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>1.4007537749946661E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.00930690016118596</v>
+        <v>9.4927887841551525E-3</v>
       </c>
       <c r="C17">
-        <v>14467</v>
+        <v>14279</v>
       </c>
       <c r="D17">
-        <v>0.01367246194968542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>1.4038730647873379E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>0.009384087290453671</v>
+        <v>1.2284657043992781E-2</v>
       </c>
       <c r="C18">
-        <v>14289</v>
+        <v>172</v>
       </c>
       <c r="D18">
-        <v>0.01373872658434699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>1.536086770476644E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>0.009486213628492479</v>
+        <v>8.0573748375082702E-3</v>
       </c>
       <c r="C19">
-        <v>14246</v>
+        <v>9416</v>
       </c>
       <c r="D19">
-        <v>0.01400753774994666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>0.009492788784155153</v>
-      </c>
-      <c r="C20">
-        <v>14279</v>
-      </c>
-      <c r="D20">
-        <v>0.01403873064787338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>0.01228465704399278</v>
-      </c>
-      <c r="C21">
-        <v>172</v>
-      </c>
-      <c r="D21">
-        <v>0.01536086770476644</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>0.00805737483750827</v>
-      </c>
-      <c r="C22">
-        <v>9416</v>
-      </c>
-      <c r="D22">
         <v>0.1837138298836869</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D19" xr:uid="{6095B2EB-9B77-2946-AF56-03942DB49ED8}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="11650"/>
+        <filter val="13402"/>
+        <filter val="13776"/>
+        <filter val="14246"/>
+        <filter val="14279"/>
+        <filter val="14289"/>
+        <filter val="14467"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -1,49 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Clair/PycharmProjects/ai_value/results_lgbm/compare_with_ibes/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8464F251-A363-FA4C-85AA-EF5D7049F62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="average" sheetId="1" r:id="rId1"/>
+    <sheet name="average_mae" sheetId="1" r:id="rId1"/>
+    <sheet name="average_mse" sheetId="2" r:id="rId2"/>
+    <sheet name="average_r2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">average!$A$1:$D$19</definedName>
-  </definedNames>
-  <calcPr calcId="191029" iterateDelta="9.9999999999994451E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>consensus</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+  <si>
+    <t>consensus_mae</t>
+  </si>
+  <si>
+    <t>lgbm_mae</t>
   </si>
   <si>
     <t>len</t>
   </si>
   <si>
-    <t>lgbm</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -53,18 +36,15 @@
     <t>ibes_2_ni</t>
   </si>
   <si>
-    <t>ibes_2_fwdeps</t>
-  </si>
-  <si>
-    <t>ibes_2_fwdepsqcut</t>
-  </si>
-  <si>
     <t>ibes_1_fwdepsqcut</t>
   </si>
   <si>
     <t>ibes_6_niqcut</t>
   </si>
   <si>
+    <t>ibes_1_fwdepsqcut_dense_small</t>
+  </si>
+  <si>
     <t>ibes_1_fwdepsqcut_dense</t>
   </si>
   <si>
@@ -98,14 +78,29 @@
     <t>ni_6_niqcut</t>
   </si>
   <si>
-    <t>ibes_2_niqcut</t>
+    <t>ibes_2_niibes_new industry_all x</t>
+  </si>
+  <si>
+    <t>ibes_2_fwdepsqcutibes_new industry_monthly -new</t>
+  </si>
+  <si>
+    <t>consensus_mse</t>
+  </si>
+  <si>
+    <t>lgbm_mse</t>
+  </si>
+  <si>
+    <t>consensus_r2</t>
+  </si>
+  <si>
+    <t>lgbm_r2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,21 +112,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,29 +152,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -241,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,27 +241,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,24 +275,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -518,20 +450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="249" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -545,272 +471,433 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>7.4774416114006493E-3</v>
-      </c>
-      <c r="C2">
+      <c r="D2">
         <v>568</v>
       </c>
-      <c r="D2">
-        <v>6.9521974415974377E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>8.6041095489648983E-3</v>
-      </c>
-      <c r="C3">
+      <c r="D3">
         <v>14467</v>
       </c>
-      <c r="D3">
-        <v>7.4613908310076308E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>8.6041095489648983E-3</v>
-      </c>
-      <c r="C4">
-        <v>14467</v>
-      </c>
       <c r="D4">
-        <v>7.4703165431350129E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>8.6041095489648983E-3</v>
-      </c>
-      <c r="C5">
-        <v>14467</v>
-      </c>
       <c r="D5">
-        <v>8.2152913928862509E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+        <v>13402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>8.6101714672629486E-3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>13776</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8.239669139180731E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>6736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>8.6731419809088651E-3</v>
-      </c>
-      <c r="C7">
-        <v>13402</v>
-      </c>
       <c r="D7">
-        <v>8.2903205751400783E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+        <v>11650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>11650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <v>8.6589441840465731E-3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>11650</v>
-      </c>
-      <c r="D8" s="3">
-        <v>9.0657110962312683E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>14289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>8817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>14289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>14246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>14279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C19">
+        <v>0.007708801641950978</v>
+      </c>
+      <c r="D19">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C20">
+        <v>0.008469286589584625</v>
+      </c>
+      <c r="D20">
+        <v>14467</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>8.5283509711310858E-3</v>
-      </c>
-      <c r="C9">
-        <v>2695</v>
-      </c>
-      <c r="D9">
-        <v>1.262906986070185E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0.0001912207229547458</v>
+      </c>
+      <c r="C19">
+        <v>0.0001426442329509068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0.0001912207229547458</v>
+      </c>
+      <c r="C20">
+        <v>0.0001643585902464235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>9.038742197873241E-3</v>
-      </c>
-      <c r="C10">
-        <v>4248</v>
-      </c>
-      <c r="D10">
-        <v>1.26430822285556E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>9.3069001611859603E-3</v>
-      </c>
-      <c r="C11">
-        <v>14467</v>
-      </c>
-      <c r="D11">
-        <v>1.3228057628949229E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>9.3840872904536708E-3</v>
-      </c>
-      <c r="C12">
-        <v>14289</v>
-      </c>
-      <c r="D12">
-        <v>1.3401263606095219E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>8.6448079918162533E-3</v>
-      </c>
-      <c r="C13">
-        <v>8817</v>
-      </c>
-      <c r="D13">
-        <v>1.3415102948218131E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>9.3069001611859603E-3</v>
-      </c>
-      <c r="C14">
-        <v>14467</v>
-      </c>
-      <c r="D14">
-        <v>1.3672461949685419E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>9.3840872904536708E-3</v>
-      </c>
-      <c r="C15">
-        <v>14289</v>
-      </c>
-      <c r="D15">
-        <v>1.3738726584346991E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>9.4862136284924788E-3</v>
-      </c>
-      <c r="C16">
-        <v>14246</v>
-      </c>
-      <c r="D16">
-        <v>1.4007537749946661E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>9.4927887841551525E-3</v>
-      </c>
-      <c r="C17">
-        <v>14279</v>
-      </c>
-      <c r="D17">
-        <v>1.4038730647873379E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
-        <v>1.2284657043992781E-2</v>
-      </c>
-      <c r="C18">
-        <v>172</v>
-      </c>
-      <c r="D18">
-        <v>1.536086770476644E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B19">
+        <v>0.1735043671980052</v>
+      </c>
+      <c r="C19">
+        <v>0.3834620340483922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
-        <v>8.0573748375082702E-3</v>
-      </c>
-      <c r="C19">
-        <v>9416</v>
-      </c>
-      <c r="D19">
-        <v>0.1837138298836869</v>
+      <c r="B20">
+        <v>0.1735043671980052</v>
+      </c>
+      <c r="C20">
+        <v>0.2896080772359079</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D19" xr:uid="{6095B2EB-9B77-2946-AF56-03942DB49ED8}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="11650"/>
-        <filter val="13402"/>
-        <filter val="13776"/>
-        <filter val="14246"/>
-        <filter val="14279"/>
-        <filter val="14289"/>
-        <filter val="14467"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
   <si>
     <t>consensus_mae</t>
   </si>
@@ -78,7 +78,58 @@
     <t>ni_6_niqcut</t>
   </si>
   <si>
+    <t>ibes_2_fwdepsall</t>
+  </si>
+  <si>
+    <t>ibes_2_fwdepsqcutall</t>
+  </si>
+  <si>
+    <t>ibes_2_niall</t>
+  </si>
+  <si>
+    <t>ibes_2_niqcutall</t>
+  </si>
+  <si>
+    <t>ni_1_epsqcutall</t>
+  </si>
+  <si>
+    <t>ni_1_fwdepsqcutall</t>
+  </si>
+  <si>
     <t>ibes_2_niibes_new industry_all x</t>
+  </si>
+  <si>
+    <t>ni_2_epsqcutall</t>
+  </si>
+  <si>
+    <t>ni_2_fwdepsall</t>
+  </si>
+  <si>
+    <t>ni_2_fwdepsqcutall</t>
+  </si>
+  <si>
+    <t>ni_2_niqcutall</t>
+  </si>
+  <si>
+    <t>ibes_1_fwdepsqcutall</t>
+  </si>
+  <si>
+    <t>ni_6_epsqcutall</t>
+  </si>
+  <si>
+    <t>ni_6_fwdepsall</t>
+  </si>
+  <si>
+    <t>ni_6_fwdepsqcutall</t>
+  </si>
+  <si>
+    <t>ni_6_niqcutall</t>
+  </si>
+  <si>
+    <t>ibes_6_niall</t>
+  </si>
+  <si>
+    <t>ibes_6_niqcutall</t>
   </si>
   <si>
     <t>ibes_2_fwdepsqcutibes_new industry_monthly -new</t>
@@ -451,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +666,7 @@
         <v>0.008604109548964898</v>
       </c>
       <c r="C19">
-        <v>0.007708801641950978</v>
+        <v>0.007470316543135013</v>
       </c>
       <c r="D19">
         <v>14467</v>
@@ -629,9 +680,247 @@
         <v>0.008604109548964898</v>
       </c>
       <c r="C20">
+        <v>0.008215291392886251</v>
+      </c>
+      <c r="D20">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C21">
+        <v>0.007461390831007631</v>
+      </c>
+      <c r="D21">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0.00805737483750827</v>
+      </c>
+      <c r="C22">
+        <v>0.1837138298836869</v>
+      </c>
+      <c r="D22">
+        <v>9416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0.00930690016118596</v>
+      </c>
+      <c r="C23">
+        <v>0.01322805762894923</v>
+      </c>
+      <c r="D23">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.00930690016118596</v>
+      </c>
+      <c r="C24">
+        <v>0.01367246194968542</v>
+      </c>
+      <c r="D24">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C25">
+        <v>0.007708801641950978</v>
+      </c>
+      <c r="D25">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0.009384087290453671</v>
+      </c>
+      <c r="C26">
+        <v>0.01340126360609522</v>
+      </c>
+      <c r="D26">
+        <v>14289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0.008644807991816253</v>
+      </c>
+      <c r="C27">
+        <v>0.01341510294821813</v>
+      </c>
+      <c r="D27">
+        <v>8817</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>0.009384087290453671</v>
+      </c>
+      <c r="C28">
+        <v>0.01373872658434699</v>
+      </c>
+      <c r="D28">
+        <v>14289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.008528350971131086</v>
+      </c>
+      <c r="C29">
+        <v>0.01262906986070185</v>
+      </c>
+      <c r="D29">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0.008610171467262949</v>
+      </c>
+      <c r="C30">
+        <v>0.008239669139180731</v>
+      </c>
+      <c r="D30">
+        <v>13776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>0.009486213628492479</v>
+      </c>
+      <c r="C31">
+        <v>0.01400753774994666</v>
+      </c>
+      <c r="D31">
+        <v>14246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0.009038742197873241</v>
+      </c>
+      <c r="C32">
+        <v>0.0126430822285556</v>
+      </c>
+      <c r="D32">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0.009492788784155153</v>
+      </c>
+      <c r="C33">
+        <v>0.01403873064787338</v>
+      </c>
+      <c r="D33">
+        <v>14279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>0.01228465704399278</v>
+      </c>
+      <c r="C34">
+        <v>0.01536086770476644</v>
+      </c>
+      <c r="D34">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0.007477441611400649</v>
+      </c>
+      <c r="C35">
+        <v>0.006952197441597438</v>
+      </c>
+      <c r="D35">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>0.008673141980908865</v>
+      </c>
+      <c r="C36">
+        <v>0.008290320575140078</v>
+      </c>
+      <c r="D36">
+        <v>13402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C37">
         <v>0.008469286589584625</v>
       </c>
-      <c r="D20">
+      <c r="D37">
         <v>14467</v>
       </c>
     </row>
@@ -642,7 +931,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -653,10 +942,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -752,7 +1041,7 @@
         <v>0.0001912207229547458</v>
       </c>
       <c r="C19">
-        <v>0.0001426442329509068</v>
+        <v>0.0001325319287743607</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -763,6 +1052,193 @@
         <v>0.0001912207229547458</v>
       </c>
       <c r="C20">
+        <v>0.0001556152243958754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0.0001912207229547458</v>
+      </c>
+      <c r="C21">
+        <v>0.0001325166682965043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0.0001649716511865244</v>
+      </c>
+      <c r="C22">
+        <v>0.2930747732627866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0.0002502923659196805</v>
+      </c>
+      <c r="C23">
+        <v>0.0003862778965042625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.0002502923659196805</v>
+      </c>
+      <c r="C24">
+        <v>0.0004051570219911205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0.0001912207229547458</v>
+      </c>
+      <c r="C25">
+        <v>0.0001426442329509068</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0.0002532052346180917</v>
+      </c>
+      <c r="C26">
+        <v>0.0003937459829565908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0.0002294509112695472</v>
+      </c>
+      <c r="C27">
+        <v>0.0003981313247943609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>0.0002532052346180917</v>
+      </c>
+      <c r="C28">
+        <v>0.0004125113101432529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.000203871529051575</v>
+      </c>
+      <c r="C29">
+        <v>0.0003612018902403622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0.0001881451180040419</v>
+      </c>
+      <c r="C30">
+        <v>0.0001526727622675599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>0.0002655293988020324</v>
+      </c>
+      <c r="C31">
+        <v>0.0004398341092509414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0.0002256485513973776</v>
+      </c>
+      <c r="C32">
+        <v>0.0003459275682665808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0.0002665371160243559</v>
+      </c>
+      <c r="C33">
+        <v>0.0004404649755702346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>0.0004709140032300097</v>
+      </c>
+      <c r="C34">
+        <v>0.0004709231570525772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0.0001247685482317693</v>
+      </c>
+      <c r="C35">
+        <v>0.0001125278119205122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>0.00019713923724414</v>
+      </c>
+      <c r="C36">
+        <v>0.0001632626089992504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0.0001912207229547458</v>
+      </c>
+      <c r="C37">
         <v>0.0001643585902464235</v>
       </c>
     </row>
@@ -773,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -784,10 +1260,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -883,7 +1359,7 @@
         <v>0.1735043671980052</v>
       </c>
       <c r="C19">
-        <v>0.3834620340483922</v>
+        <v>0.4271695104679781</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -894,6 +1370,193 @@
         <v>0.1735043671980052</v>
       </c>
       <c r="C20">
+        <v>0.3273987182281938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0.1735043671980052</v>
+      </c>
+      <c r="C21">
+        <v>0.427235469419016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0.1906957878217975</v>
+      </c>
+      <c r="C22">
+        <v>-1436.741859154764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0.1947037613060144</v>
+      </c>
+      <c r="C23">
+        <v>0.3336735193412539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.1947037613060144</v>
+      </c>
+      <c r="C24">
+        <v>0.3011071691632697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0.1735043671980052</v>
+      </c>
+      <c r="C25">
+        <v>0.3834620340483922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0.1984279574716866</v>
+      </c>
+      <c r="C26">
+        <v>0.3262405094436426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0.2226069576934256</v>
+      </c>
+      <c r="C27">
+        <v>0.3074484060234234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>0.1984279574716866</v>
+      </c>
+      <c r="C28">
+        <v>0.2941301697000553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.1949805716943612</v>
+      </c>
+      <c r="C29">
+        <v>0.291269576474345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0.1583265261454939</v>
+      </c>
+      <c r="C30">
+        <v>0.3170132951419991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>0.2138770334213254</v>
+      </c>
+      <c r="C31">
+        <v>0.2882648798759097</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0.2126124149099204</v>
+      </c>
+      <c r="C32">
+        <v>0.325935518794627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0.2124983988231735</v>
+      </c>
+      <c r="C33">
+        <v>0.28787141047346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>0.1536488363972039</v>
+      </c>
+      <c r="C34">
+        <v>0.3104200912380863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0.2712347402394351</v>
+      </c>
+      <c r="C35">
+        <v>0.3427321128061412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>0.1777030362757285</v>
+      </c>
+      <c r="C36">
+        <v>0.3190074713359624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0.1735043671980052</v>
+      </c>
+      <c r="C37">
         <v>0.2896080772359079</v>
       </c>
     </row>

--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>consensus_mae</t>
   </si>
@@ -48,36 +48,6 @@
     <t>ibes_1_fwdepsqcut_dense</t>
   </si>
   <si>
-    <t>ni_2_niqcut</t>
-  </si>
-  <si>
-    <t>ni_6_fwdeps</t>
-  </si>
-  <si>
-    <t>ni_1_epsqcut</t>
-  </si>
-  <si>
-    <t>ni_2_epsqcut</t>
-  </si>
-  <si>
-    <t>ni_2_fwdeps</t>
-  </si>
-  <si>
-    <t>ni_1_fwdepsqcut</t>
-  </si>
-  <si>
-    <t>ni_2_fwdepsqcut</t>
-  </si>
-  <si>
-    <t>ni_6_epsqcut</t>
-  </si>
-  <si>
-    <t>ni_6_fwdepsqcut</t>
-  </si>
-  <si>
-    <t>ni_6_niqcut</t>
-  </si>
-  <si>
     <t>ibes_2_fwdepsall</t>
   </si>
   <si>
@@ -90,40 +60,22 @@
     <t>ibes_2_niqcutall</t>
   </si>
   <si>
-    <t>ni_1_epsqcutall</t>
-  </si>
-  <si>
-    <t>ni_1_fwdepsqcutall</t>
+    <t>ibes_1_fwdepsqcutibes_new industry_monthly -new</t>
+  </si>
+  <si>
+    <t>ibes_1_fwdepsqcutibes_entire_only ws -small space</t>
+  </si>
+  <si>
+    <t>ibes_1_fwdepsqcut-industry_codeibes_entire_only ws -small space</t>
+  </si>
+  <si>
+    <t>ibes_1_fwdepsqcut-sector_codeibes_entire_only ws -small space</t>
   </si>
   <si>
     <t>ibes_2_niibes_new industry_all x</t>
   </si>
   <si>
-    <t>ni_2_epsqcutall</t>
-  </si>
-  <si>
-    <t>ni_2_fwdepsall</t>
-  </si>
-  <si>
-    <t>ni_2_fwdepsqcutall</t>
-  </si>
-  <si>
-    <t>ni_2_niqcutall</t>
-  </si>
-  <si>
     <t>ibes_1_fwdepsqcutall</t>
-  </si>
-  <si>
-    <t>ni_6_epsqcutall</t>
-  </si>
-  <si>
-    <t>ni_6_fwdepsall</t>
-  </si>
-  <si>
-    <t>ni_6_fwdepsqcutall</t>
-  </si>
-  <si>
-    <t>ni_6_niqcutall</t>
   </si>
   <si>
     <t>ibes_6_niall</t>
@@ -502,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,22 +534,40 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B9">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C9">
+        <v>0.007470316543135013</v>
+      </c>
       <c r="D9">
-        <v>2695</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B10">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C10">
+        <v>0.008215291392886251</v>
+      </c>
       <c r="D10">
-        <v>4248</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B11">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C11">
+        <v>0.007461390831007631</v>
+      </c>
       <c r="D11">
         <v>14467</v>
       </c>
@@ -606,56 +576,98 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B12">
+        <v>0.00805737483750827</v>
+      </c>
+      <c r="C12">
+        <v>0.1837138298836869</v>
+      </c>
       <c r="D12">
-        <v>14289</v>
+        <v>9416</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B13">
+        <v>0.008678456694987024</v>
+      </c>
+      <c r="C13">
+        <v>0.008644511593760368</v>
+      </c>
       <c r="D13">
-        <v>8817</v>
+        <v>72335</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B14">
+        <v>0.008678456694987024</v>
+      </c>
+      <c r="C14">
+        <v>0.008544289473126482</v>
+      </c>
       <c r="D14">
-        <v>14467</v>
+        <v>72335</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B15">
+        <v>0.008678456694987024</v>
+      </c>
+      <c r="C15">
+        <v>0.008530476100099951</v>
+      </c>
       <c r="D15">
-        <v>14289</v>
+        <v>72335</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B16">
+        <v>0.008678456694987024</v>
+      </c>
+      <c r="C16">
+        <v>0.008534339330599787</v>
+      </c>
       <c r="D16">
-        <v>14246</v>
+        <v>72335</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B17">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C17">
+        <v>0.007708801641950978</v>
+      </c>
       <c r="D17">
-        <v>14279</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B18">
+        <v>0.008610171467262949</v>
+      </c>
+      <c r="C18">
+        <v>0.008239669139180731</v>
+      </c>
       <c r="D18">
-        <v>172</v>
+        <v>13776</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -663,13 +675,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.008604109548964898</v>
+        <v>0.007477441611400649</v>
       </c>
       <c r="C19">
-        <v>0.007470316543135013</v>
+        <v>0.006952197441597438</v>
       </c>
       <c r="D19">
-        <v>14467</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -677,13 +689,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.008604109548964898</v>
+        <v>0.008673141980908865</v>
       </c>
       <c r="C20">
-        <v>0.008215291392886251</v>
+        <v>0.008290320575140078</v>
       </c>
       <c r="D20">
-        <v>14467</v>
+        <v>13402</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -694,234 +706,10 @@
         <v>0.008604109548964898</v>
       </c>
       <c r="C21">
-        <v>0.007461390831007631</v>
+        <v>0.008619950459357508</v>
       </c>
       <c r="D21">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>0.00805737483750827</v>
-      </c>
-      <c r="C22">
-        <v>0.1837138298836869</v>
-      </c>
-      <c r="D22">
-        <v>9416</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>0.00930690016118596</v>
-      </c>
-      <c r="C23">
-        <v>0.01322805762894923</v>
-      </c>
-      <c r="D23">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>0.00930690016118596</v>
-      </c>
-      <c r="C24">
-        <v>0.01367246194968542</v>
-      </c>
-      <c r="D24">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>0.008604109548964898</v>
-      </c>
-      <c r="C25">
-        <v>0.007708801641950978</v>
-      </c>
-      <c r="D25">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>0.009384087290453671</v>
-      </c>
-      <c r="C26">
-        <v>0.01340126360609522</v>
-      </c>
-      <c r="D26">
-        <v>14289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>0.008644807991816253</v>
-      </c>
-      <c r="C27">
-        <v>0.01341510294821813</v>
-      </c>
-      <c r="D27">
-        <v>8817</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>0.009384087290453671</v>
-      </c>
-      <c r="C28">
-        <v>0.01373872658434699</v>
-      </c>
-      <c r="D28">
-        <v>14289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>0.008528350971131086</v>
-      </c>
-      <c r="C29">
-        <v>0.01262906986070185</v>
-      </c>
-      <c r="D29">
-        <v>2695</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>0.008610171467262949</v>
-      </c>
-      <c r="C30">
-        <v>0.008239669139180731</v>
-      </c>
-      <c r="D30">
-        <v>13776</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>0.009486213628492479</v>
-      </c>
-      <c r="C31">
-        <v>0.01400753774994666</v>
-      </c>
-      <c r="D31">
-        <v>14246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>0.009038742197873241</v>
-      </c>
-      <c r="C32">
-        <v>0.0126430822285556</v>
-      </c>
-      <c r="D32">
-        <v>4248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>0.009492788784155153</v>
-      </c>
-      <c r="C33">
-        <v>0.01403873064787338</v>
-      </c>
-      <c r="D33">
-        <v>14279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>0.01228465704399278</v>
-      </c>
-      <c r="C34">
-        <v>0.01536086770476644</v>
-      </c>
-      <c r="D34">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>0.007477441611400649</v>
-      </c>
-      <c r="C35">
-        <v>0.006952197441597438</v>
-      </c>
-      <c r="D35">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>0.008673141980908865</v>
-      </c>
-      <c r="C36">
-        <v>0.008290320575140078</v>
-      </c>
-      <c r="D36">
-        <v>13402</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>0.008604109548964898</v>
-      </c>
-      <c r="C37">
-        <v>0.008469286589584625</v>
-      </c>
-      <c r="D37">
-        <v>14467</v>
+        <v>72335</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +719,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -942,10 +730,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -987,61 +775,121 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B9">
+        <v>0.0001912207229547458</v>
+      </c>
+      <c r="C9">
+        <v>0.0001325319287743607</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B10">
+        <v>0.0001912207229547458</v>
+      </c>
+      <c r="C10">
+        <v>0.0001556152243958754</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B11">
+        <v>0.0001912207229547458</v>
+      </c>
+      <c r="C11">
+        <v>0.0001325166682965043</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B12">
+        <v>0.0001649716511865244</v>
+      </c>
+      <c r="C12">
+        <v>0.2930747732627866</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B13">
+        <v>0.0001910814699852377</v>
+      </c>
+      <c r="C13">
+        <v>0.0001652494698839271</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B14">
+        <v>0.0001910814699852376</v>
+      </c>
+      <c r="C14">
+        <v>0.0001617465550260044</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B15">
+        <v>0.0001910814699852376</v>
+      </c>
+      <c r="C15">
+        <v>0.0001611049077367945</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B16">
+        <v>0.0001910814699852376</v>
+      </c>
+      <c r="C16">
+        <v>0.000161108356086321</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B17">
+        <v>0.0001912207229547458</v>
+      </c>
+      <c r="C17">
+        <v>0.0001426442329509068</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B18">
+        <v>0.0001881451180040419</v>
+      </c>
+      <c r="C18">
+        <v>0.0001526727622675599</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.0001912207229547458</v>
+        <v>0.0001247685482317693</v>
       </c>
       <c r="C19">
-        <v>0.0001325319287743607</v>
+        <v>0.0001125278119205122</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1049,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001912207229547458</v>
+        <v>0.00019713923724414</v>
       </c>
       <c r="C20">
-        <v>0.0001556152243958754</v>
+        <v>0.0001632626089992504</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1060,186 +908,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.0001912207229547458</v>
+        <v>0.0001912207229547457</v>
       </c>
       <c r="C21">
-        <v>0.0001325166682965043</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>0.0001649716511865244</v>
-      </c>
-      <c r="C22">
-        <v>0.2930747732627866</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>0.0002502923659196805</v>
-      </c>
-      <c r="C23">
-        <v>0.0003862778965042625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>0.0002502923659196805</v>
-      </c>
-      <c r="C24">
-        <v>0.0004051570219911205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>0.0001912207229547458</v>
-      </c>
-      <c r="C25">
-        <v>0.0001426442329509068</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>0.0002532052346180917</v>
-      </c>
-      <c r="C26">
-        <v>0.0003937459829565908</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>0.0002294509112695472</v>
-      </c>
-      <c r="C27">
-        <v>0.0003981313247943609</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>0.0002532052346180917</v>
-      </c>
-      <c r="C28">
-        <v>0.0004125113101432529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>0.000203871529051575</v>
-      </c>
-      <c r="C29">
-        <v>0.0003612018902403622</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>0.0001881451180040419</v>
-      </c>
-      <c r="C30">
-        <v>0.0001526727622675599</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>0.0002655293988020324</v>
-      </c>
-      <c r="C31">
-        <v>0.0004398341092509414</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>0.0002256485513973776</v>
-      </c>
-      <c r="C32">
-        <v>0.0003459275682665808</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>0.0002665371160243559</v>
-      </c>
-      <c r="C33">
-        <v>0.0004404649755702346</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>0.0004709140032300097</v>
-      </c>
-      <c r="C34">
-        <v>0.0004709231570525772</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>0.0001247685482317693</v>
-      </c>
-      <c r="C35">
-        <v>0.0001125278119205122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>0.00019713923724414</v>
-      </c>
-      <c r="C36">
-        <v>0.0001632626089992504</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>0.0001912207229547458</v>
-      </c>
-      <c r="C37">
-        <v>0.0001643585902464235</v>
+        <v>0.0001682569484514385</v>
       </c>
     </row>
   </sheetData>
@@ -1249,7 +921,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1260,10 +932,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1305,61 +977,121 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B9">
+        <v>0.1735043671980052</v>
+      </c>
+      <c r="C9">
+        <v>0.4271695104679781</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B10">
+        <v>0.1735043671980052</v>
+      </c>
+      <c r="C10">
+        <v>0.3273987182281938</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B11">
+        <v>0.1735043671980052</v>
+      </c>
+      <c r="C11">
+        <v>0.427235469419016</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B12">
+        <v>0.1906957878217975</v>
+      </c>
+      <c r="C12">
+        <v>-1436.741859154764</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B13">
+        <v>0.1471969043250454</v>
+      </c>
+      <c r="C13">
+        <v>0.2624859988436049</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B14">
+        <v>0.1471969043250456</v>
+      </c>
+      <c r="C14">
+        <v>0.2781196269235706</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B15">
+        <v>0.1471969043250456</v>
+      </c>
+      <c r="C15">
+        <v>0.2809833205858181</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B16">
+        <v>0.1471969043250456</v>
+      </c>
+      <c r="C16">
+        <v>0.2809679304846668</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B17">
+        <v>0.1735043671980052</v>
+      </c>
+      <c r="C17">
+        <v>0.3834620340483922</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B18">
+        <v>0.1583265261454939</v>
+      </c>
+      <c r="C18">
+        <v>0.3170132951419991</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.1735043671980052</v>
+        <v>0.2712347402394351</v>
       </c>
       <c r="C19">
-        <v>0.4271695104679781</v>
+        <v>0.3427321128061412</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1367,10 +1099,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.1735043671980052</v>
+        <v>0.1777030362757285</v>
       </c>
       <c r="C20">
-        <v>0.3273987182281938</v>
+        <v>0.3190074713359624</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1378,186 +1110,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.1735043671980052</v>
+        <v>0.1735043671980054</v>
       </c>
       <c r="C21">
-        <v>0.427235469419016</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>0.1906957878217975</v>
-      </c>
-      <c r="C22">
-        <v>-1436.741859154764</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>0.1947037613060144</v>
-      </c>
-      <c r="C23">
-        <v>0.3336735193412539</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>0.1947037613060144</v>
-      </c>
-      <c r="C24">
-        <v>0.3011071691632697</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>0.1735043671980052</v>
-      </c>
-      <c r="C25">
-        <v>0.3834620340483922</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>0.1984279574716866</v>
-      </c>
-      <c r="C26">
-        <v>0.3262405094436426</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>0.2226069576934256</v>
-      </c>
-      <c r="C27">
-        <v>0.3074484060234234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>0.1984279574716866</v>
-      </c>
-      <c r="C28">
-        <v>0.2941301697000553</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>0.1949805716943612</v>
-      </c>
-      <c r="C29">
-        <v>0.291269576474345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>0.1583265261454939</v>
-      </c>
-      <c r="C30">
-        <v>0.3170132951419991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>0.2138770334213254</v>
-      </c>
-      <c r="C31">
-        <v>0.2882648798759097</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>0.2126124149099204</v>
-      </c>
-      <c r="C32">
-        <v>0.325935518794627</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>0.2124983988231735</v>
-      </c>
-      <c r="C33">
-        <v>0.28787141047346</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>0.1536488363972039</v>
-      </c>
-      <c r="C34">
-        <v>0.3104200912380863</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>0.2712347402394351</v>
-      </c>
-      <c r="C35">
-        <v>0.3427321128061412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>0.1777030362757285</v>
-      </c>
-      <c r="C36">
-        <v>0.3190074713359624</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>0.1735043671980052</v>
-      </c>
-      <c r="C37">
-        <v>0.2896080772359079</v>
+        <v>0.2727585643705833</v>
       </c>
     </row>
   </sheetData>

--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>consensus_mae</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>ibes_2_niibes_new industry_all x</t>
+  </si>
+  <si>
+    <t>ibes_1_fwdepsqcutibes_sector_only ws</t>
   </si>
   <si>
     <t>ibes_1_fwdepsqcutall</t>
@@ -454,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,13 +664,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.008610171467262949</v>
+        <v>0.008678456694987026</v>
       </c>
       <c r="C18">
-        <v>0.008239669139180731</v>
+        <v>0.00866768148410987</v>
       </c>
       <c r="D18">
-        <v>13776</v>
+        <v>72335</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -675,13 +678,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.007477441611400649</v>
+        <v>0.008610171467262949</v>
       </c>
       <c r="C19">
-        <v>0.006952197441597438</v>
+        <v>0.008239669139180731</v>
       </c>
       <c r="D19">
-        <v>568</v>
+        <v>13776</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -689,13 +692,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.008673141980908865</v>
+        <v>0.007477441611400649</v>
       </c>
       <c r="C20">
-        <v>0.008290320575140078</v>
+        <v>0.006952197441597438</v>
       </c>
       <c r="D20">
-        <v>13402</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -703,12 +706,26 @@
         <v>22</v>
       </c>
       <c r="B21">
+        <v>0.008673141980908865</v>
+      </c>
+      <c r="C21">
+        <v>0.008290320575140078</v>
+      </c>
+      <c r="D21">
+        <v>13402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
         <v>0.008604109548964898</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>0.008619950459357508</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>72335</v>
       </c>
     </row>
@@ -719,7 +736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -730,10 +747,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -875,10 +892,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.0001881451180040419</v>
+        <v>0.0001910814699852376</v>
       </c>
       <c r="C18">
-        <v>0.0001526727622675599</v>
+        <v>0.0001649103182825853</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -886,10 +903,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.0001247685482317693</v>
+        <v>0.0001881451180040419</v>
       </c>
       <c r="C19">
-        <v>0.0001125278119205122</v>
+        <v>0.0001526727622675599</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -897,10 +914,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.00019713923724414</v>
+        <v>0.0001247685482317693</v>
       </c>
       <c r="C20">
-        <v>0.0001632626089992504</v>
+        <v>0.0001125278119205122</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -908,9 +925,20 @@
         <v>22</v>
       </c>
       <c r="B21">
+        <v>0.00019713923724414</v>
+      </c>
+      <c r="C21">
+        <v>0.0001632626089992504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
         <v>0.0001912207229547457</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>0.0001682569484514385</v>
       </c>
     </row>
@@ -921,7 +949,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -932,10 +960,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1077,10 +1105,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.1583265261454939</v>
+        <v>0.1471969043250456</v>
       </c>
       <c r="C18">
-        <v>0.3170132951419991</v>
+        <v>0.263999643968639</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1088,10 +1116,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.2712347402394351</v>
+        <v>0.1583265261454939</v>
       </c>
       <c r="C19">
-        <v>0.3427321128061412</v>
+        <v>0.3170132951419991</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1099,10 +1127,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.1777030362757285</v>
+        <v>0.2712347402394351</v>
       </c>
       <c r="C20">
-        <v>0.3190074713359624</v>
+        <v>0.3427321128061412</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1110,9 +1138,20 @@
         <v>22</v>
       </c>
       <c r="B21">
+        <v>0.1777030362757285</v>
+      </c>
+      <c r="C21">
+        <v>0.3190074713359624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
         <v>0.1735043671980054</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>0.2727585643705833</v>
       </c>
     </row>

--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>consensus_mae</t>
   </si>
@@ -30,37 +30,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>ibes_6_ni</t>
-  </si>
-  <si>
-    <t>ibes_2_ni</t>
-  </si>
-  <si>
-    <t>ibes_1_fwdepsqcut</t>
-  </si>
-  <si>
-    <t>ibes_6_niqcut</t>
-  </si>
-  <si>
     <t>ibes_1_fwdepsqcut_dense_small</t>
   </si>
   <si>
     <t>ibes_1_fwdepsqcut_dense</t>
   </si>
   <si>
-    <t>ibes_2_fwdepsall</t>
-  </si>
-  <si>
-    <t>ibes_2_fwdepsqcutall</t>
-  </si>
-  <si>
-    <t>ibes_2_niall</t>
-  </si>
-  <si>
-    <t>ibes_2_niqcutall</t>
-  </si>
-  <si>
-    <t>ibes_1_fwdepsqcutibes_new industry_monthly -new</t>
+    <t>ibes_2_niibes_new industry_all x</t>
+  </si>
+  <si>
+    <t>ibes_6_fwdepsqcutibes_sector_only ws</t>
   </si>
   <si>
     <t>ibes_1_fwdepsqcutibes_entire_only ws -small space</t>
@@ -70,21 +49,6 @@
   </si>
   <si>
     <t>ibes_1_fwdepsqcut-sector_codeibes_entire_only ws -small space</t>
-  </si>
-  <si>
-    <t>ibes_2_niibes_new industry_all x</t>
-  </si>
-  <si>
-    <t>ibes_1_fwdepsqcutibes_sector_only ws</t>
-  </si>
-  <si>
-    <t>ibes_1_fwdepsqcutall</t>
-  </si>
-  <si>
-    <t>ibes_6_niall</t>
-  </si>
-  <si>
-    <t>ibes_6_niqcutall</t>
   </si>
   <si>
     <t>ibes_2_fwdepsqcutibes_new industry_monthly -new</t>
@@ -457,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>568</v>
+        <v>6736</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -490,47 +454,71 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>14467</v>
+        <v>11650</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>13776</v>
+        <v>11650</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C5">
+        <v>0.007713263826776462</v>
       </c>
       <c r="D5">
-        <v>13402</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.008671821560996527</v>
+      </c>
+      <c r="C6">
+        <v>0.008458447109673861</v>
       </c>
       <c r="D6">
-        <v>6736</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.008678456694987022</v>
+      </c>
+      <c r="C7">
+        <v>0.008448765006626679</v>
       </c>
       <c r="D7">
-        <v>11650</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B8">
+        <v>0.008678456694987022</v>
+      </c>
+      <c r="C8">
+        <v>0.00844203716965602</v>
+      </c>
       <c r="D8">
-        <v>11650</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -538,10 +526,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.008604109548964898</v>
+        <v>0.008678456694987022</v>
       </c>
       <c r="C9">
-        <v>0.007470316543135013</v>
+        <v>0.008436547465942945</v>
       </c>
       <c r="D9">
         <v>14467</v>
@@ -555,178 +543,10 @@
         <v>0.008604109548964898</v>
       </c>
       <c r="C10">
-        <v>0.008215291392886251</v>
+        <v>0.00846372123928172</v>
       </c>
       <c r="D10">
         <v>14467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>0.008604109548964898</v>
-      </c>
-      <c r="C11">
-        <v>0.007461390831007631</v>
-      </c>
-      <c r="D11">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>0.00805737483750827</v>
-      </c>
-      <c r="C12">
-        <v>0.1837138298836869</v>
-      </c>
-      <c r="D12">
-        <v>9416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.008678456694987024</v>
-      </c>
-      <c r="C13">
-        <v>0.008644511593760368</v>
-      </c>
-      <c r="D13">
-        <v>72335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0.008678456694987024</v>
-      </c>
-      <c r="C14">
-        <v>0.008544289473126482</v>
-      </c>
-      <c r="D14">
-        <v>72335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>0.008678456694987024</v>
-      </c>
-      <c r="C15">
-        <v>0.008530476100099951</v>
-      </c>
-      <c r="D15">
-        <v>72335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>0.008678456694987024</v>
-      </c>
-      <c r="C16">
-        <v>0.008534339330599787</v>
-      </c>
-      <c r="D16">
-        <v>72335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>0.008604109548964898</v>
-      </c>
-      <c r="C17">
-        <v>0.007708801641950978</v>
-      </c>
-      <c r="D17">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>0.008678456694987026</v>
-      </c>
-      <c r="C18">
-        <v>0.00866768148410987</v>
-      </c>
-      <c r="D18">
-        <v>72335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>0.008610171467262949</v>
-      </c>
-      <c r="C19">
-        <v>0.008239669139180731</v>
-      </c>
-      <c r="D19">
-        <v>13776</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>0.007477441611400649</v>
-      </c>
-      <c r="C20">
-        <v>0.006952197441597438</v>
-      </c>
-      <c r="D20">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>0.008673141980908865</v>
-      </c>
-      <c r="C21">
-        <v>0.008290320575140078</v>
-      </c>
-      <c r="D21">
-        <v>13402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>0.008604109548964898</v>
-      </c>
-      <c r="C22">
-        <v>0.008619950459357508</v>
-      </c>
-      <c r="D22">
-        <v>72335</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +556,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -747,10 +567,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -765,38 +585,62 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.0001912207229547458</v>
+      </c>
+      <c r="C5">
+        <v>0.0001424283148460244</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.0001963651867993053</v>
+      </c>
+      <c r="C6">
+        <v>0.0001656538903813811</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.0001910814699852377</v>
+      </c>
+      <c r="C7">
+        <v>0.0001593106913936636</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B8">
+        <v>0.0001910814699852377</v>
+      </c>
+      <c r="C8">
+        <v>0.000158816060047906</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.0001912207229547458</v>
+        <v>0.0001910814699852377</v>
       </c>
       <c r="C9">
-        <v>0.0001325319287743607</v>
+        <v>0.0001585719152247653</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -807,139 +651,7 @@
         <v>0.0001912207229547458</v>
       </c>
       <c r="C10">
-        <v>0.0001556152243958754</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>0.0001912207229547458</v>
-      </c>
-      <c r="C11">
-        <v>0.0001325166682965043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>0.0001649716511865244</v>
-      </c>
-      <c r="C12">
-        <v>0.2930747732627866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.0001910814699852377</v>
-      </c>
-      <c r="C13">
-        <v>0.0001652494698839271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0.0001910814699852376</v>
-      </c>
-      <c r="C14">
-        <v>0.0001617465550260044</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>0.0001910814699852376</v>
-      </c>
-      <c r="C15">
-        <v>0.0001611049077367945</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>0.0001910814699852376</v>
-      </c>
-      <c r="C16">
-        <v>0.000161108356086321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>0.0001912207229547458</v>
-      </c>
-      <c r="C17">
-        <v>0.0001426442329509068</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>0.0001910814699852376</v>
-      </c>
-      <c r="C18">
-        <v>0.0001649103182825853</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>0.0001881451180040419</v>
-      </c>
-      <c r="C19">
-        <v>0.0001526727622675599</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>0.0001247685482317693</v>
-      </c>
-      <c r="C20">
-        <v>0.0001125278119205122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>0.00019713923724414</v>
-      </c>
-      <c r="C21">
-        <v>0.0001632626089992504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>0.0001912207229547457</v>
-      </c>
-      <c r="C22">
-        <v>0.0001682569484514385</v>
+        <v>0.0001638159469838932</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +661,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -960,10 +672,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -978,38 +690,62 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.1735043671980052</v>
+      </c>
+      <c r="C5">
+        <v>0.3843952768892865</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.1750751885050298</v>
+      </c>
+      <c r="C6">
+        <v>0.3040925098605477</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.1471969043250456</v>
+      </c>
+      <c r="C7">
+        <v>0.2889909691131755</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B8">
+        <v>0.1471969043250456</v>
+      </c>
+      <c r="C8">
+        <v>0.2911985256225145</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.1735043671980052</v>
+        <v>0.1471969043250456</v>
       </c>
       <c r="C9">
-        <v>0.4271695104679781</v>
+        <v>0.2922881522670212</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1020,139 +756,7 @@
         <v>0.1735043671980052</v>
       </c>
       <c r="C10">
-        <v>0.3273987182281938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>0.1735043671980052</v>
-      </c>
-      <c r="C11">
-        <v>0.427235469419016</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>0.1906957878217975</v>
-      </c>
-      <c r="C12">
-        <v>-1436.741859154764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.1471969043250454</v>
-      </c>
-      <c r="C13">
-        <v>0.2624859988436049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0.1471969043250456</v>
-      </c>
-      <c r="C14">
-        <v>0.2781196269235706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>0.1471969043250456</v>
-      </c>
-      <c r="C15">
-        <v>0.2809833205858181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>0.1471969043250456</v>
-      </c>
-      <c r="C16">
-        <v>0.2809679304846668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>0.1735043671980052</v>
-      </c>
-      <c r="C17">
-        <v>0.3834620340483922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>0.1471969043250456</v>
-      </c>
-      <c r="C18">
-        <v>0.263999643968639</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>0.1583265261454939</v>
-      </c>
-      <c r="C19">
-        <v>0.3170132951419991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>0.2712347402394351</v>
-      </c>
-      <c r="C20">
-        <v>0.3427321128061412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>0.1777030362757285</v>
-      </c>
-      <c r="C21">
-        <v>0.3190074713359624</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>0.1735043671980054</v>
-      </c>
-      <c r="C22">
-        <v>0.2727585643705833</v>
+        <v>0.2919534939863556</v>
       </c>
     </row>
   </sheetData>

--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>consensus_mae</t>
   </si>
@@ -36,22 +36,25 @@
     <t>ibes_1_fwdepsqcut_dense</t>
   </si>
   <si>
+    <t>ibes_2|ni</t>
+  </si>
+  <si>
+    <t>ibes_6|fwdepsqcut</t>
+  </si>
+  <si>
+    <t>ibes_1|fwdepsqcut</t>
+  </si>
+  <si>
+    <t>ibes_1|fwdepsqcut-industry_code</t>
+  </si>
+  <si>
+    <t>ibes_1|fwdepsqcut-sector_code</t>
+  </si>
+  <si>
+    <t>ibes_2|fwdepsqcut</t>
+  </si>
+  <si>
     <t>ibes_2_niibes_new industry_all x</t>
-  </si>
-  <si>
-    <t>ibes_6_fwdepsqcutibes_sector_only ws</t>
-  </si>
-  <si>
-    <t>ibes_1_fwdepsqcutibes_entire_only ws -small space</t>
-  </si>
-  <si>
-    <t>ibes_1_fwdepsqcut-industry_codeibes_entire_only ws -small space</t>
-  </si>
-  <si>
-    <t>ibes_1_fwdepsqcut-sector_codeibes_entire_only ws -small space</t>
-  </si>
-  <si>
-    <t>ibes_2_fwdepsqcutibes_new industry_monthly -new</t>
   </si>
   <si>
     <t>consensus_mse</t>
@@ -421,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,6 +552,202 @@
         <v>14467</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.008828774570773384</v>
+      </c>
+      <c r="C11">
+        <v>0.008646404845723692</v>
+      </c>
+      <c r="D11">
+        <v>15176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.008828774570773384</v>
+      </c>
+      <c r="C12">
+        <v>0.008646404845723692</v>
+      </c>
+      <c r="D12">
+        <v>15176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.008861431855592515</v>
+      </c>
+      <c r="C13">
+        <v>0.008657069946889659</v>
+      </c>
+      <c r="D13">
+        <v>15176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0.008861431855592515</v>
+      </c>
+      <c r="C14">
+        <v>0.008655520916151328</v>
+      </c>
+      <c r="D14">
+        <v>15176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0.008861431855592515</v>
+      </c>
+      <c r="C15">
+        <v>0.008633570842822232</v>
+      </c>
+      <c r="D15">
+        <v>15176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C16">
+        <v>0.00846372123928172</v>
+      </c>
+      <c r="D16">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0.008678456694987022</v>
+      </c>
+      <c r="C17">
+        <v>0.008448765006626679</v>
+      </c>
+      <c r="D17">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>0.008678456694987022</v>
+      </c>
+      <c r="C18">
+        <v>0.00844203716965602</v>
+      </c>
+      <c r="D18">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0.008678456694987022</v>
+      </c>
+      <c r="C19">
+        <v>0.008436547465942945</v>
+      </c>
+      <c r="D19">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0.008861431855592515</v>
+      </c>
+      <c r="C20">
+        <v>0.008657069946889659</v>
+      </c>
+      <c r="D20">
+        <v>15176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0.008861431855592515</v>
+      </c>
+      <c r="C21">
+        <v>0.008655520916151328</v>
+      </c>
+      <c r="D21">
+        <v>15176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0.008861431855592515</v>
+      </c>
+      <c r="C22">
+        <v>0.008633570842822232</v>
+      </c>
+      <c r="D22">
+        <v>15176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>0.008604109548964898</v>
+      </c>
+      <c r="C23">
+        <v>0.007713263826776462</v>
+      </c>
+      <c r="D23">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>0.008671821560996527</v>
+      </c>
+      <c r="C24">
+        <v>0.008458447109673861</v>
+      </c>
+      <c r="D24">
+        <v>14467</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -556,7 +755,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -567,10 +766,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -652,6 +851,160 @@
       </c>
       <c r="C10">
         <v>0.0001638159469838932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.0002002415943724616</v>
+      </c>
+      <c r="C11">
+        <v>0.0001711980222485912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.0002002415943724616</v>
+      </c>
+      <c r="C12">
+        <v>0.0001711980222485912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.0001975833946462478</v>
+      </c>
+      <c r="C13">
+        <v>0.000165658781017481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0.0001975833946462478</v>
+      </c>
+      <c r="C14">
+        <v>0.0001653666277995522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0.0001975833946462478</v>
+      </c>
+      <c r="C15">
+        <v>0.0001649262922803621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>0.0001912207229547458</v>
+      </c>
+      <c r="C16">
+        <v>0.0001638159469838932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0.0001910814699852377</v>
+      </c>
+      <c r="C17">
+        <v>0.0001593106913936636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>0.0001910814699852377</v>
+      </c>
+      <c r="C18">
+        <v>0.000158816060047906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0.0001910814699852377</v>
+      </c>
+      <c r="C19">
+        <v>0.0001585719152247653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0.0001975833946462478</v>
+      </c>
+      <c r="C20">
+        <v>0.000165658781017481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0.0001975833946462478</v>
+      </c>
+      <c r="C21">
+        <v>0.0001653666277995522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0.0001975833946462478</v>
+      </c>
+      <c r="C22">
+        <v>0.0001649262922803621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>0.0001912207229547458</v>
+      </c>
+      <c r="C23">
+        <v>0.0001424283148460244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>0.0001963651867993053</v>
+      </c>
+      <c r="C24">
+        <v>0.0001656538903813811</v>
       </c>
     </row>
   </sheetData>
@@ -661,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -672,10 +1025,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -757,6 +1110,160 @@
       </c>
       <c r="C10">
         <v>0.2919534939863556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.1712998665722781</v>
+      </c>
+      <c r="C11">
+        <v>0.2914967326115103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.1712998665722781</v>
+      </c>
+      <c r="C12">
+        <v>0.2914967326115103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.1445666443086192</v>
+      </c>
+      <c r="C13">
+        <v>0.2827836205606028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0.1445666443086192</v>
+      </c>
+      <c r="C14">
+        <v>0.2840484920749137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0.1445666443086192</v>
+      </c>
+      <c r="C15">
+        <v>0.285954915899068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>0.1735043671980052</v>
+      </c>
+      <c r="C16">
+        <v>0.2919534939863556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0.1471969043250456</v>
+      </c>
+      <c r="C17">
+        <v>0.2889909691131755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>0.1471969043250456</v>
+      </c>
+      <c r="C18">
+        <v>0.2911985256225145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0.1471969043250456</v>
+      </c>
+      <c r="C19">
+        <v>0.2922881522670212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0.1445666443086192</v>
+      </c>
+      <c r="C20">
+        <v>0.2827836205606028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0.1445666443086192</v>
+      </c>
+      <c r="C21">
+        <v>0.2840484920749137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0.1445666443086192</v>
+      </c>
+      <c r="C22">
+        <v>0.285954915899068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>0.1735043671980052</v>
+      </c>
+      <c r="C23">
+        <v>0.3843952768892865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>0.1750751885050298</v>
+      </c>
+      <c r="C24">
+        <v>0.3040925098605477</v>
       </c>
     </row>
   </sheetData>

--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
   <si>
     <t>consensus_mae</t>
   </si>
@@ -424,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,6 +748,34 @@
         <v>14467</v>
       </c>
     </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>0.00868530404783152</v>
+      </c>
+      <c r="C25">
+        <v>0.01548543399886494</v>
+      </c>
+      <c r="D25">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0.008845316857790393</v>
+      </c>
+      <c r="C26">
+        <v>0.01063093775534476</v>
+      </c>
+      <c r="D26">
+        <v>4248</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -755,7 +783,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1007,6 +1035,28 @@
         <v>0.0001656538903813811</v>
       </c>
     </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>0.0001863592814081091</v>
+      </c>
+      <c r="C25">
+        <v>0.06298051216161954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0.0001898182306259094</v>
+      </c>
+      <c r="C26">
+        <v>0.0002424421740806488</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1014,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1266,6 +1316,28 @@
         <v>0.3040925098605477</v>
       </c>
     </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>0.1590824785547557</v>
+      </c>
+      <c r="C25">
+        <v>-283.1898497683123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0.1553310941405974</v>
+      </c>
+      <c r="C26">
+        <v>-0.07883929398994383</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="17">
   <si>
     <t>consensus_mae</t>
   </si>
@@ -36,6 +36,9 @@
     <t>ibes_1_fwdepsqcut_dense</t>
   </si>
   <si>
+    <t>ibes_2|fwdepsqcut</t>
+  </si>
+  <si>
     <t>ibes_2|ni</t>
   </si>
   <si>
@@ -49,9 +52,6 @@
   </si>
   <si>
     <t>ibes_1|fwdepsqcut-sector_code</t>
-  </si>
-  <si>
-    <t>ibes_2|fwdepsqcut</t>
   </si>
   <si>
     <t>ibes_2_niibes_new industry_all x</t>
@@ -424,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,7 +476,7 @@
         <v>0.008604109548964898</v>
       </c>
       <c r="C5">
-        <v>0.007713263826776462</v>
+        <v>0.008410825239654493</v>
       </c>
       <c r="D5">
         <v>14467</v>
@@ -487,10 +487,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.008671821560996527</v>
+        <v>0.008604109548964898</v>
       </c>
       <c r="C6">
-        <v>0.008458447109673861</v>
+        <v>0.007713263826776462</v>
       </c>
       <c r="D6">
         <v>14467</v>
@@ -501,10 +501,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.008678456694987022</v>
+        <v>0.008671821560996527</v>
       </c>
       <c r="C7">
-        <v>0.008448765006626679</v>
+        <v>0.008458447109673861</v>
       </c>
       <c r="D7">
         <v>14467</v>
@@ -518,7 +518,7 @@
         <v>0.008678456694987022</v>
       </c>
       <c r="C8">
-        <v>0.00844203716965602</v>
+        <v>0.008448765006626679</v>
       </c>
       <c r="D8">
         <v>14467</v>
@@ -532,7 +532,7 @@
         <v>0.008678456694987022</v>
       </c>
       <c r="C9">
-        <v>0.008436547465942945</v>
+        <v>0.00844203716965602</v>
       </c>
       <c r="D9">
         <v>14467</v>
@@ -543,10 +543,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.008604109548964898</v>
+        <v>0.008678456694987022</v>
       </c>
       <c r="C10">
-        <v>0.00846372123928172</v>
+        <v>0.008436547465942945</v>
       </c>
       <c r="D10">
         <v>14467</v>
@@ -554,21 +554,21 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0.008828774570773384</v>
+        <v>0.008604109548964898</v>
       </c>
       <c r="C11">
-        <v>0.008646404845723692</v>
+        <v>0.00846372123928172</v>
       </c>
       <c r="D11">
-        <v>15176</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>0.008828774570773384</v>
@@ -582,13 +582,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>0.008861431855592515</v>
+        <v>0.008828774570773384</v>
       </c>
       <c r="C13">
-        <v>0.008657069946889659</v>
+        <v>0.008646404845723692</v>
       </c>
       <c r="D13">
         <v>15176</v>
@@ -602,7 +602,7 @@
         <v>0.008861431855592515</v>
       </c>
       <c r="C14">
-        <v>0.008655520916151328</v>
+        <v>0.008657069946889659</v>
       </c>
       <c r="D14">
         <v>15176</v>
@@ -616,7 +616,7 @@
         <v>0.008861431855592515</v>
       </c>
       <c r="C15">
-        <v>0.008633570842822232</v>
+        <v>0.008655520916151328</v>
       </c>
       <c r="D15">
         <v>15176</v>
@@ -627,24 +627,24 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0.008604109548964898</v>
+        <v>0.008861431855592515</v>
       </c>
       <c r="C16">
-        <v>0.00846372123928172</v>
+        <v>0.008633570842822232</v>
       </c>
       <c r="D16">
-        <v>14467</v>
+        <v>15176</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>0.008678456694987022</v>
+        <v>0.008604109548964898</v>
       </c>
       <c r="C17">
-        <v>0.008448765006626679</v>
+        <v>0.00846372123928172</v>
       </c>
       <c r="D17">
         <v>14467</v>
@@ -658,7 +658,7 @@
         <v>0.008678456694987022</v>
       </c>
       <c r="C18">
-        <v>0.00844203716965602</v>
+        <v>0.008448765006626679</v>
       </c>
       <c r="D18">
         <v>14467</v>
@@ -672,7 +672,7 @@
         <v>0.008678456694987022</v>
       </c>
       <c r="C19">
-        <v>0.008436547465942945</v>
+        <v>0.00844203716965602</v>
       </c>
       <c r="D19">
         <v>14467</v>
@@ -680,16 +680,16 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>0.008861431855592515</v>
+        <v>0.008678456694987022</v>
       </c>
       <c r="C20">
-        <v>0.008657069946889659</v>
+        <v>0.008436547465942945</v>
       </c>
       <c r="D20">
-        <v>15176</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,7 +700,7 @@
         <v>0.008861431855592515</v>
       </c>
       <c r="C21">
-        <v>0.008655520916151328</v>
+        <v>0.008657069946889659</v>
       </c>
       <c r="D21">
         <v>15176</v>
@@ -714,7 +714,7 @@
         <v>0.008861431855592515</v>
       </c>
       <c r="C22">
-        <v>0.008633570842822232</v>
+        <v>0.008655520916151328</v>
       </c>
       <c r="D22">
         <v>15176</v>
@@ -722,27 +722,27 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>0.008604109548964898</v>
+        <v>0.008861431855592515</v>
       </c>
       <c r="C23">
-        <v>0.007713263826776462</v>
+        <v>0.008633570842822232</v>
       </c>
       <c r="D23">
-        <v>14467</v>
+        <v>15176</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>0.008671821560996527</v>
+        <v>0.008604109548964898</v>
       </c>
       <c r="C24">
-        <v>0.008458447109673861</v>
+        <v>0.007713263826776462</v>
       </c>
       <c r="D24">
         <v>14467</v>
@@ -750,16 +750,16 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <v>0.00868530404783152</v>
+        <v>0.008671821560996527</v>
       </c>
       <c r="C25">
-        <v>0.01548543399886494</v>
+        <v>0.008458447109673861</v>
       </c>
       <c r="D25">
-        <v>4917</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -767,12 +767,26 @@
         <v>10</v>
       </c>
       <c r="B26">
+        <v>0.00868530404783152</v>
+      </c>
+      <c r="C26">
+        <v>0.01548543399886494</v>
+      </c>
+      <c r="D26">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
         <v>0.008845316857790393</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>0.01063093775534476</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>4248</v>
       </c>
     </row>
@@ -783,7 +797,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -823,7 +837,7 @@
         <v>0.0001912207229547458</v>
       </c>
       <c r="C5">
-        <v>0.0001424283148460244</v>
+        <v>0.0001624912169815024</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -831,10 +845,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0001963651867993053</v>
+        <v>0.0001912207229547458</v>
       </c>
       <c r="C6">
-        <v>0.0001656538903813811</v>
+        <v>0.0001424283148460244</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -842,10 +856,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0001910814699852377</v>
+        <v>0.0001963651867993053</v>
       </c>
       <c r="C7">
-        <v>0.0001593106913936636</v>
+        <v>0.0001656538903813811</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -856,7 +870,7 @@
         <v>0.0001910814699852377</v>
       </c>
       <c r="C8">
-        <v>0.000158816060047906</v>
+        <v>0.0001593106913936636</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -867,7 +881,7 @@
         <v>0.0001910814699852377</v>
       </c>
       <c r="C9">
-        <v>0.0001585719152247653</v>
+        <v>0.000158816060047906</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -875,26 +889,26 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0001912207229547458</v>
+        <v>0.0001910814699852377</v>
       </c>
       <c r="C10">
-        <v>0.0001638159469838932</v>
+        <v>0.0001585719152247653</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0.0002002415943724616</v>
+        <v>0.0001912207229547458</v>
       </c>
       <c r="C11">
-        <v>0.0001711980222485912</v>
+        <v>0.0001638159469838932</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>0.0002002415943724616</v>
@@ -905,13 +919,13 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>0.0001975833946462478</v>
+        <v>0.0002002415943724616</v>
       </c>
       <c r="C13">
-        <v>0.000165658781017481</v>
+        <v>0.0001711980222485912</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -922,7 +936,7 @@
         <v>0.0001975833946462478</v>
       </c>
       <c r="C14">
-        <v>0.0001653666277995522</v>
+        <v>0.000165658781017481</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -933,7 +947,7 @@
         <v>0.0001975833946462478</v>
       </c>
       <c r="C15">
-        <v>0.0001649262922803621</v>
+        <v>0.0001653666277995522</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -941,21 +955,21 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0.0001912207229547458</v>
+        <v>0.0001975833946462478</v>
       </c>
       <c r="C16">
-        <v>0.0001638159469838932</v>
+        <v>0.0001649262922803621</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>0.0001910814699852377</v>
+        <v>0.0001912207229547458</v>
       </c>
       <c r="C17">
-        <v>0.0001593106913936636</v>
+        <v>0.0001638159469838932</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -966,7 +980,7 @@
         <v>0.0001910814699852377</v>
       </c>
       <c r="C18">
-        <v>0.000158816060047906</v>
+        <v>0.0001593106913936636</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -977,18 +991,18 @@
         <v>0.0001910814699852377</v>
       </c>
       <c r="C19">
-        <v>0.0001585719152247653</v>
+        <v>0.000158816060047906</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>0.0001975833946462478</v>
+        <v>0.0001910814699852377</v>
       </c>
       <c r="C20">
-        <v>0.000165658781017481</v>
+        <v>0.0001585719152247653</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -999,7 +1013,7 @@
         <v>0.0001975833946462478</v>
       </c>
       <c r="C21">
-        <v>0.0001653666277995522</v>
+        <v>0.000165658781017481</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1010,40 +1024,40 @@
         <v>0.0001975833946462478</v>
       </c>
       <c r="C22">
-        <v>0.0001649262922803621</v>
+        <v>0.0001653666277995522</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>0.0001912207229547458</v>
+        <v>0.0001975833946462478</v>
       </c>
       <c r="C23">
-        <v>0.0001424283148460244</v>
+        <v>0.0001649262922803621</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>0.0001963651867993053</v>
+        <v>0.0001912207229547458</v>
       </c>
       <c r="C24">
-        <v>0.0001656538903813811</v>
+        <v>0.0001424283148460244</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <v>0.0001863592814081091</v>
+        <v>0.0001963651867993053</v>
       </c>
       <c r="C25">
-        <v>0.06298051216161954</v>
+        <v>0.0001656538903813811</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1051,9 +1065,20 @@
         <v>10</v>
       </c>
       <c r="B26">
+        <v>0.0001863592814081091</v>
+      </c>
+      <c r="C26">
+        <v>0.06298051216161954</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
         <v>0.0001898182306259094</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>0.0002424421740806488</v>
       </c>
     </row>
@@ -1064,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1104,7 +1129,7 @@
         <v>0.1735043671980052</v>
       </c>
       <c r="C5">
-        <v>0.3843952768892865</v>
+        <v>0.2976792518681354</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1112,10 +1137,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.1750751885050298</v>
+        <v>0.1735043671980052</v>
       </c>
       <c r="C6">
-        <v>0.3040925098605477</v>
+        <v>0.3843952768892865</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1123,10 +1148,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.1471969043250456</v>
+        <v>0.1750751885050298</v>
       </c>
       <c r="C7">
-        <v>0.2889909691131755</v>
+        <v>0.3040925098605477</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1137,7 +1162,7 @@
         <v>0.1471969043250456</v>
       </c>
       <c r="C8">
-        <v>0.2911985256225145</v>
+        <v>0.2889909691131755</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1148,7 +1173,7 @@
         <v>0.1471969043250456</v>
       </c>
       <c r="C9">
-        <v>0.2922881522670212</v>
+        <v>0.2911985256225145</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1156,26 +1181,26 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.1735043671980052</v>
+        <v>0.1471969043250456</v>
       </c>
       <c r="C10">
-        <v>0.2919534939863556</v>
+        <v>0.2922881522670212</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0.1712998665722781</v>
+        <v>0.1735043671980052</v>
       </c>
       <c r="C11">
-        <v>0.2914967326115103</v>
+        <v>0.2919534939863556</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>0.1712998665722781</v>
@@ -1186,13 +1211,13 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>0.1445666443086192</v>
+        <v>0.1712998665722781</v>
       </c>
       <c r="C13">
-        <v>0.2827836205606028</v>
+        <v>0.2914967326115103</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1203,7 +1228,7 @@
         <v>0.1445666443086192</v>
       </c>
       <c r="C14">
-        <v>0.2840484920749137</v>
+        <v>0.2827836205606028</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1214,7 +1239,7 @@
         <v>0.1445666443086192</v>
       </c>
       <c r="C15">
-        <v>0.285954915899068</v>
+        <v>0.2840484920749137</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1222,21 +1247,21 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0.1735043671980052</v>
+        <v>0.1445666443086192</v>
       </c>
       <c r="C16">
-        <v>0.2919534939863556</v>
+        <v>0.285954915899068</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>0.1471969043250456</v>
+        <v>0.1735043671980052</v>
       </c>
       <c r="C17">
-        <v>0.2889909691131755</v>
+        <v>0.2919534939863556</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1247,7 +1272,7 @@
         <v>0.1471969043250456</v>
       </c>
       <c r="C18">
-        <v>0.2911985256225145</v>
+        <v>0.2889909691131755</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1258,18 +1283,18 @@
         <v>0.1471969043250456</v>
       </c>
       <c r="C19">
-        <v>0.2922881522670212</v>
+        <v>0.2911985256225145</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>0.1445666443086192</v>
+        <v>0.1471969043250456</v>
       </c>
       <c r="C20">
-        <v>0.2827836205606028</v>
+        <v>0.2922881522670212</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1280,7 +1305,7 @@
         <v>0.1445666443086192</v>
       </c>
       <c r="C21">
-        <v>0.2840484920749137</v>
+        <v>0.2827836205606028</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1291,40 +1316,40 @@
         <v>0.1445666443086192</v>
       </c>
       <c r="C22">
-        <v>0.285954915899068</v>
+        <v>0.2840484920749137</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>0.1735043671980052</v>
+        <v>0.1445666443086192</v>
       </c>
       <c r="C23">
-        <v>0.3843952768892865</v>
+        <v>0.285954915899068</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>0.1750751885050298</v>
+        <v>0.1735043671980052</v>
       </c>
       <c r="C24">
-        <v>0.3040925098605477</v>
+        <v>0.3843952768892865</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <v>0.1590824785547557</v>
+        <v>0.1750751885050298</v>
       </c>
       <c r="C25">
-        <v>-283.1898497683123</v>
+        <v>0.3040925098605477</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1332,9 +1357,20 @@
         <v>10</v>
       </c>
       <c r="B26">
+        <v>0.1590824785547557</v>
+      </c>
+      <c r="C26">
+        <v>-283.1898497683123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
         <v>0.1553310941405974</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>-0.07883929398994383</v>
       </c>
     </row>

--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>consensus_mae</t>
   </si>
@@ -30,31 +30,52 @@
     <t>index</t>
   </si>
   <si>
-    <t>ibes_1_fwdepsqcut_dense_small</t>
-  </si>
-  <si>
-    <t>ibes_1_fwdepsqcut_dense</t>
-  </si>
-  <si>
-    <t>ibes_2|fwdepsqcut</t>
-  </si>
-  <si>
-    <t>ibes_2|ni</t>
-  </si>
-  <si>
-    <t>ibes_6|fwdepsqcut</t>
-  </si>
-  <si>
-    <t>ibes_1|fwdepsqcut</t>
-  </si>
-  <si>
-    <t>ibes_1|fwdepsqcut-industry_code</t>
-  </si>
-  <si>
-    <t>ibes_1|fwdepsqcut-sector_code</t>
-  </si>
-  <si>
-    <t>ibes_2_niibes_new industry_all x</t>
+    <t>ibes_1_fwdepsqcut_dense_small|dense_small</t>
+  </si>
+  <si>
+    <t>ibes_1_fwdepsqcut_dense|dense</t>
+  </si>
+  <si>
+    <t>ibes_1_fwdepsqcut_dense|dense copy</t>
+  </si>
+  <si>
+    <t>ibes_2|fwdepsqcut|ibes_new industry_only ws -indi space2</t>
+  </si>
+  <si>
+    <t>ibes_2|ni|ibes_new industry_all x</t>
+  </si>
+  <si>
+    <t>ibes_6|fwdepsqcut|ibes_sector_only ws</t>
+  </si>
+  <si>
+    <t>ibes_1|fwdepsqcut|ibes_entire_only ws -small space</t>
+  </si>
+  <si>
+    <t>ibes_1|fwdepsqcut-industry_code|ibes_entire_only ws -small space</t>
+  </si>
+  <si>
+    <t>ibes_1|fwdepsqcut-sector_code|ibes_entire_only ws -small space</t>
+  </si>
+  <si>
+    <t>ibes_2|fwdepsqcut|ibes_new industry_monthly -new</t>
+  </si>
+  <si>
+    <t>ibes_2|fwdepsqcut|ibes_new industry_only ws -indi space</t>
+  </si>
+  <si>
+    <t>ibes_1|fwdepsqcut|ibes_entire_only ws -smaller space</t>
+  </si>
+  <si>
+    <t>ibes_1|fwdepsqcut-industry_code|ibes_entire_only ws -smaller space</t>
+  </si>
+  <si>
+    <t>ibes_1|fwdepsqcut-sector_code|ibes_entire_only ws -smaller space</t>
+  </si>
+  <si>
+    <t>ibes_1|fwdepsqcut-industry_code|dense2_fixed_space</t>
+  </si>
+  <si>
+    <t>ibes_1|fwdepsqcut-sector_code|dense2_fixed_space</t>
   </si>
   <si>
     <t>consensus_mse</t>
@@ -424,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,7 +483,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>11650</v>
@@ -470,13 +491,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.008604109548964898</v>
       </c>
       <c r="C5">
-        <v>0.008410825239654493</v>
+        <v>0.008394791004197242</v>
       </c>
       <c r="D5">
         <v>14467</v>
@@ -484,13 +505,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.008604109548964898</v>
       </c>
       <c r="C6">
-        <v>0.007713263826776462</v>
+        <v>0.007708801641950978</v>
       </c>
       <c r="D6">
         <v>14467</v>
@@ -498,13 +519,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.008671821560996527</v>
       </c>
       <c r="C7">
-        <v>0.008458447109673861</v>
+        <v>0.008445103744557394</v>
       </c>
       <c r="D7">
         <v>14467</v>
@@ -512,13 +533,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.008678456694987022</v>
       </c>
       <c r="C8">
-        <v>0.008448765006626679</v>
+        <v>0.00845092018891346</v>
       </c>
       <c r="D8">
         <v>14467</v>
@@ -526,13 +547,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.008678456694987022</v>
       </c>
       <c r="C9">
-        <v>0.00844203716965602</v>
+        <v>0.008434613034530632</v>
       </c>
       <c r="D9">
         <v>14467</v>
@@ -540,13 +561,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.008678456694987022</v>
       </c>
       <c r="C10">
-        <v>0.008436547465942945</v>
+        <v>0.008437023182856801</v>
       </c>
       <c r="D10">
         <v>14467</v>
@@ -554,13 +575,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.008604109548964898</v>
       </c>
       <c r="C11">
-        <v>0.00846372123928172</v>
+        <v>0.008469286589584625</v>
       </c>
       <c r="D11">
         <v>14467</v>
@@ -568,225 +589,85 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0.008828774570773384</v>
+        <v>0.008604109548964898</v>
       </c>
       <c r="C12">
-        <v>0.008646404845723692</v>
+        <v>0.008402116902958124</v>
       </c>
       <c r="D12">
-        <v>15176</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>0.008828774570773384</v>
+        <v>0.008678456694987022</v>
       </c>
       <c r="C13">
-        <v>0.008646404845723692</v>
+        <v>0.008466304641858418</v>
       </c>
       <c r="D13">
-        <v>15176</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>0.008861431855592515</v>
+        <v>0.008678456694987022</v>
       </c>
       <c r="C14">
-        <v>0.008657069946889659</v>
+        <v>0.008463912779398983</v>
       </c>
       <c r="D14">
-        <v>15176</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>0.008861431855592515</v>
+        <v>0.008678456694987022</v>
       </c>
       <c r="C15">
-        <v>0.008655520916151328</v>
+        <v>0.0084377979857826</v>
       </c>
       <c r="D15">
-        <v>15176</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>0.008861431855592515</v>
+        <v>0.00868530404783152</v>
       </c>
       <c r="C16">
-        <v>0.008633570842822232</v>
+        <v>0.01548543399886494</v>
       </c>
       <c r="D16">
-        <v>15176</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.008604109548964898</v>
+        <v>0.008845316857790393</v>
       </c>
       <c r="C17">
-        <v>0.00846372123928172</v>
+        <v>0.01063093775534476</v>
       </c>
       <c r="D17">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>0.008678456694987022</v>
-      </c>
-      <c r="C18">
-        <v>0.008448765006626679</v>
-      </c>
-      <c r="D18">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>0.008678456694987022</v>
-      </c>
-      <c r="C19">
-        <v>0.00844203716965602</v>
-      </c>
-      <c r="D19">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>0.008678456694987022</v>
-      </c>
-      <c r="C20">
-        <v>0.008436547465942945</v>
-      </c>
-      <c r="D20">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>0.008861431855592515</v>
-      </c>
-      <c r="C21">
-        <v>0.008657069946889659</v>
-      </c>
-      <c r="D21">
-        <v>15176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>0.008861431855592515</v>
-      </c>
-      <c r="C22">
-        <v>0.008655520916151328</v>
-      </c>
-      <c r="D22">
-        <v>15176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>0.008861431855592515</v>
-      </c>
-      <c r="C23">
-        <v>0.008633570842822232</v>
-      </c>
-      <c r="D23">
-        <v>15176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>0.008604109548964898</v>
-      </c>
-      <c r="C24">
-        <v>0.007713263826776462</v>
-      </c>
-      <c r="D24">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>0.008671821560996527</v>
-      </c>
-      <c r="C25">
-        <v>0.008458447109673861</v>
-      </c>
-      <c r="D25">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>0.00868530404783152</v>
-      </c>
-      <c r="C26">
-        <v>0.01548543399886494</v>
-      </c>
-      <c r="D26">
-        <v>4917</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27">
-        <v>0.008845316857790393</v>
-      </c>
-      <c r="C27">
-        <v>0.01063093775534476</v>
-      </c>
-      <c r="D27">
         <v>4248</v>
       </c>
     </row>
@@ -797,7 +678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -808,10 +689,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -826,259 +707,149 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.0001912207229547458</v>
       </c>
       <c r="C5">
-        <v>0.0001624912169815024</v>
+        <v>0.0001625102919587525</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.0001912207229547458</v>
       </c>
       <c r="C6">
-        <v>0.0001424283148460244</v>
+        <v>0.0001426442329509068</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.0001963651867993053</v>
       </c>
       <c r="C7">
-        <v>0.0001656538903813811</v>
+        <v>0.00016564975637852</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.0001910814699852377</v>
       </c>
       <c r="C8">
-        <v>0.0001593106913936636</v>
+        <v>0.0001596307346045054</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.0001910814699852377</v>
       </c>
       <c r="C9">
-        <v>0.000158816060047906</v>
+        <v>0.0001587544655452727</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.0001910814699852377</v>
       </c>
       <c r="C10">
-        <v>0.0001585719152247653</v>
+        <v>0.0001587981048191891</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.0001912207229547458</v>
       </c>
       <c r="C11">
-        <v>0.0001638159469838932</v>
+        <v>0.0001643585902464235</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0.0002002415943724616</v>
+        <v>0.0001912207229547458</v>
       </c>
       <c r="C12">
-        <v>0.0001711980222485912</v>
+        <v>0.0001628656110527917</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>0.0002002415943724616</v>
+        <v>0.0001910814699852377</v>
       </c>
       <c r="C13">
-        <v>0.0001711980222485912</v>
+        <v>0.0001601606396437591</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>0.0001975833946462478</v>
+        <v>0.0001910814699852377</v>
       </c>
       <c r="C14">
-        <v>0.000165658781017481</v>
+        <v>0.0001598135387541494</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>0.0001975833946462478</v>
+        <v>0.0001910814699852377</v>
       </c>
       <c r="C15">
-        <v>0.0001653666277995522</v>
+        <v>0.000159192587625351</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>0.0001975833946462478</v>
+        <v>0.0001863592814081091</v>
       </c>
       <c r="C16">
-        <v>0.0001649262922803621</v>
+        <v>0.06298051216161954</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.0001912207229547458</v>
+        <v>0.0001898182306259094</v>
       </c>
       <c r="C17">
-        <v>0.0001638159469838932</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>0.0001910814699852377</v>
-      </c>
-      <c r="C18">
-        <v>0.0001593106913936636</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>0.0001910814699852377</v>
-      </c>
-      <c r="C19">
-        <v>0.000158816060047906</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>0.0001910814699852377</v>
-      </c>
-      <c r="C20">
-        <v>0.0001585719152247653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>0.0001975833946462478</v>
-      </c>
-      <c r="C21">
-        <v>0.000165658781017481</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>0.0001975833946462478</v>
-      </c>
-      <c r="C22">
-        <v>0.0001653666277995522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>0.0001975833946462478</v>
-      </c>
-      <c r="C23">
-        <v>0.0001649262922803621</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>0.0001912207229547458</v>
-      </c>
-      <c r="C24">
-        <v>0.0001424283148460244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>0.0001963651867993053</v>
-      </c>
-      <c r="C25">
-        <v>0.0001656538903813811</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>0.0001863592814081091</v>
-      </c>
-      <c r="C26">
-        <v>0.06298051216161954</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27">
-        <v>0.0001898182306259094</v>
-      </c>
-      <c r="C27">
         <v>0.0002424421740806488</v>
       </c>
     </row>
@@ -1089,7 +860,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1100,10 +871,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1118,259 +889,149 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.1735043671980052</v>
       </c>
       <c r="C5">
-        <v>0.2976792518681354</v>
+        <v>0.2975968058594112</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.1735043671980052</v>
       </c>
       <c r="C6">
-        <v>0.3843952768892865</v>
+        <v>0.3834620340483922</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.1750751885050298</v>
       </c>
       <c r="C7">
-        <v>0.3040925098605477</v>
+        <v>0.3041098766941832</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.1471969043250456</v>
       </c>
       <c r="C8">
-        <v>0.2889909691131755</v>
+        <v>0.2875626053844651</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.1471969043250456</v>
       </c>
       <c r="C9">
-        <v>0.2911985256225145</v>
+        <v>0.2914734239814519</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.1471969043250456</v>
       </c>
       <c r="C10">
-        <v>0.2922881522670212</v>
+        <v>0.2912786604186018</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.1735043671980052</v>
       </c>
       <c r="C11">
-        <v>0.2919534939863556</v>
+        <v>0.2896080772359079</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0.1712998665722781</v>
+        <v>0.1735043671980052</v>
       </c>
       <c r="C12">
-        <v>0.2914967326115103</v>
+        <v>0.2960610430250445</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>0.1712998665722781</v>
+        <v>0.1471969043250456</v>
       </c>
       <c r="C13">
-        <v>0.2914967326115103</v>
+        <v>0.2851976211820501</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>0.1445666443086192</v>
+        <v>0.1471969043250456</v>
       </c>
       <c r="C14">
-        <v>0.2827836205606028</v>
+        <v>0.2867467442508308</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>0.1445666443086192</v>
+        <v>0.1471969043250456</v>
       </c>
       <c r="C15">
-        <v>0.2840484920749137</v>
+        <v>0.2895180702456698</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>0.1445666443086192</v>
+        <v>0.1590824785547557</v>
       </c>
       <c r="C16">
-        <v>0.285954915899068</v>
+        <v>-283.1898497683123</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.1735043671980052</v>
+        <v>0.1553310941405974</v>
       </c>
       <c r="C17">
-        <v>0.2919534939863556</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>0.1471969043250456</v>
-      </c>
-      <c r="C18">
-        <v>0.2889909691131755</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>0.1471969043250456</v>
-      </c>
-      <c r="C19">
-        <v>0.2911985256225145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>0.1471969043250456</v>
-      </c>
-      <c r="C20">
-        <v>0.2922881522670212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>0.1445666443086192</v>
-      </c>
-      <c r="C21">
-        <v>0.2827836205606028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>0.1445666443086192</v>
-      </c>
-      <c r="C22">
-        <v>0.2840484920749137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>0.1445666443086192</v>
-      </c>
-      <c r="C23">
-        <v>0.285954915899068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>0.1735043671980052</v>
-      </c>
-      <c r="C24">
-        <v>0.3843952768892865</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>0.1750751885050298</v>
-      </c>
-      <c r="C25">
-        <v>0.3040925098605477</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>0.1590824785547557</v>
-      </c>
-      <c r="C26">
-        <v>-283.1898497683123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27">
-        <v>0.1553310941405974</v>
-      </c>
-      <c r="C27">
         <v>-0.07883929398994383</v>
       </c>
     </row>

--- a/results_lgbm/compare_with_ibes/#compare_all.xlsx
+++ b/results_lgbm/compare_with_ibes/#compare_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>consensus_mae</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>ibes_2|ni|ibes_new industry_all x</t>
+  </si>
+  <si>
+    <t>ibes_2|fwdepsqcut|ibes_new industry_only ws -indi space3</t>
   </si>
   <si>
     <t>ibes_6|fwdepsqcut|ibes_sector_only ws</t>
@@ -445,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +525,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.008671821560996527</v>
+        <v>0.008828774570773384</v>
       </c>
       <c r="C7">
-        <v>0.008445103744557394</v>
+        <v>0.008553319309886702</v>
       </c>
       <c r="D7">
-        <v>14467</v>
+        <v>15176</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -536,10 +539,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.008678456694987022</v>
+        <v>0.008671821560996527</v>
       </c>
       <c r="C8">
-        <v>0.00845092018891346</v>
+        <v>0.008445103744557394</v>
       </c>
       <c r="D8">
         <v>14467</v>
@@ -553,7 +556,7 @@
         <v>0.008678456694987022</v>
       </c>
       <c r="C9">
-        <v>0.008434613034530632</v>
+        <v>0.00845092018891346</v>
       </c>
       <c r="D9">
         <v>14467</v>
@@ -567,7 +570,7 @@
         <v>0.008678456694987022</v>
       </c>
       <c r="C10">
-        <v>0.008437023182856801</v>
+        <v>0.008434613034530632</v>
       </c>
       <c r="D10">
         <v>14467</v>
@@ -578,10 +581,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.008604109548964898</v>
+        <v>0.008678456694987022</v>
       </c>
       <c r="C11">
-        <v>0.008469286589584625</v>
+        <v>0.008437023182856801</v>
       </c>
       <c r="D11">
         <v>14467</v>
@@ -595,7 +598,7 @@
         <v>0.008604109548964898</v>
       </c>
       <c r="C12">
-        <v>0.008402116902958124</v>
+        <v>0.008469286589584625</v>
       </c>
       <c r="D12">
         <v>14467</v>
@@ -606,10 +609,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.008678456694987022</v>
+        <v>0.008604109548964898</v>
       </c>
       <c r="C13">
-        <v>0.008466304641858418</v>
+        <v>0.008402116902958124</v>
       </c>
       <c r="D13">
         <v>14467</v>
@@ -623,7 +626,7 @@
         <v>0.008678456694987022</v>
       </c>
       <c r="C14">
-        <v>0.008463912779398983</v>
+        <v>0.008466304641858418</v>
       </c>
       <c r="D14">
         <v>14467</v>
@@ -637,7 +640,7 @@
         <v>0.008678456694987022</v>
       </c>
       <c r="C15">
-        <v>0.0084377979857826</v>
+        <v>0.008463912779398983</v>
       </c>
       <c r="D15">
         <v>14467</v>
@@ -648,13 +651,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.00868530404783152</v>
+        <v>0.008678456694987022</v>
       </c>
       <c r="C16">
-        <v>0.01548543399886494</v>
+        <v>0.0084377979857826</v>
       </c>
       <c r="D16">
-        <v>4917</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -662,12 +665,26 @@
         <v>19</v>
       </c>
       <c r="B17">
+        <v>0.00868530404783152</v>
+      </c>
+      <c r="C17">
+        <v>0.01548543399886494</v>
+      </c>
+      <c r="D17">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
         <v>0.008845316857790393</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>0.01063093775534476</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>4248</v>
       </c>
     </row>
@@ -678,7 +695,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -689,10 +706,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -737,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.0001963651867993053</v>
+        <v>0.0002002415943724616</v>
       </c>
       <c r="C7">
-        <v>0.00016564975637852</v>
+        <v>0.0001688728103083017</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -748,10 +765,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.0001910814699852377</v>
+        <v>0.0001963651867993053</v>
       </c>
       <c r="C8">
-        <v>0.0001596307346045054</v>
+        <v>0.00016564975637852</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -762,7 +779,7 @@
         <v>0.0001910814699852377</v>
       </c>
       <c r="C9">
-        <v>0.0001587544655452727</v>
+        <v>0.0001596307346045054</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -773,7 +790,7 @@
         <v>0.0001910814699852377</v>
       </c>
       <c r="C10">
-        <v>0.0001587981048191891</v>
+        <v>0.0001587544655452727</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -781,10 +798,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.0001912207229547458</v>
+        <v>0.0001910814699852377</v>
       </c>
       <c r="C11">
-        <v>0.0001643585902464235</v>
+        <v>0.0001587981048191891</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -795,7 +812,7 @@
         <v>0.0001912207229547458</v>
       </c>
       <c r="C12">
-        <v>0.0001628656110527917</v>
+        <v>0.0001643585902464235</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -803,10 +820,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.0001910814699852377</v>
+        <v>0.0001912207229547458</v>
       </c>
       <c r="C13">
-        <v>0.0001601606396437591</v>
+        <v>0.0001628656110527917</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -817,7 +834,7 @@
         <v>0.0001910814699852377</v>
       </c>
       <c r="C14">
-        <v>0.0001598135387541494</v>
+        <v>0.0001601606396437591</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -828,7 +845,7 @@
         <v>0.0001910814699852377</v>
       </c>
       <c r="C15">
-        <v>0.000159192587625351</v>
+        <v>0.0001598135387541494</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -836,10 +853,10 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.0001863592814081091</v>
+        <v>0.0001910814699852377</v>
       </c>
       <c r="C16">
-        <v>0.06298051216161954</v>
+        <v>0.000159192587625351</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -847,9 +864,20 @@
         <v>19</v>
       </c>
       <c r="B17">
+        <v>0.0001863592814081091</v>
+      </c>
+      <c r="C17">
+        <v>0.06298051216161954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
         <v>0.0001898182306259094</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>0.0002424421740806488</v>
       </c>
     </row>
@@ -860,7 +888,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -871,10 +899,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -919,10 +947,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.1750751885050298</v>
+        <v>0.1712998665722781</v>
       </c>
       <c r="C7">
-        <v>0.3041098766941832</v>
+        <v>0.30111962565331</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -930,10 +958,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.1471969043250456</v>
+        <v>0.1750751885050298</v>
       </c>
       <c r="C8">
-        <v>0.2875626053844651</v>
+        <v>0.3041098766941832</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -944,7 +972,7 @@
         <v>0.1471969043250456</v>
       </c>
       <c r="C9">
-        <v>0.2914734239814519</v>
+        <v>0.2875626053844651</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -955,7 +983,7 @@
         <v>0.1471969043250456</v>
       </c>
       <c r="C10">
-        <v>0.2912786604186018</v>
+        <v>0.2914734239814519</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -963,10 +991,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.1735043671980052</v>
+        <v>0.1471969043250456</v>
       </c>
       <c r="C11">
-        <v>0.2896080772359079</v>
+        <v>0.2912786604186018</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -977,7 +1005,7 @@
         <v>0.1735043671980052</v>
       </c>
       <c r="C12">
-        <v>0.2960610430250445</v>
+        <v>0.2896080772359079</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -985,10 +1013,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.1471969043250456</v>
+        <v>0.1735043671980052</v>
       </c>
       <c r="C13">
-        <v>0.2851976211820501</v>
+        <v>0.2960610430250445</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -999,7 +1027,7 @@
         <v>0.1471969043250456</v>
       </c>
       <c r="C14">
-        <v>0.2867467442508308</v>
+        <v>0.2851976211820501</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1010,7 +1038,7 @@
         <v>0.1471969043250456</v>
       </c>
       <c r="C15">
-        <v>0.2895180702456698</v>
+        <v>0.2867467442508308</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1018,10 +1046,10 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.1590824785547557</v>
+        <v>0.1471969043250456</v>
       </c>
       <c r="C16">
-        <v>-283.1898497683123</v>
+        <v>0.2895180702456698</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1029,9 +1057,20 @@
         <v>19</v>
       </c>
       <c r="B17">
+        <v>0.1590824785547557</v>
+      </c>
+      <c r="C17">
+        <v>-283.1898497683123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
         <v>0.1553310941405974</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>-0.07883929398994383</v>
       </c>
     </row>
